--- a/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30065FCD-3EAB-4212-B4A7-97CD6FEAC897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A5BEC-2A41-4D5A-A209-7E956B7A1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="286">
   <si>
     <t>package_date</t>
   </si>
@@ -160,6 +160,10 @@
     <t>LBCAT</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Lab Panel Name</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -316,12 +320,20 @@
     <t>LBORNRLO</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Normal Range Lower Limit</t>
+  </si>
+  <si>
     <t>ALB_LBORNRHI</t>
   </si>
   <si>
     <t>LBORNRHI</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Normal Range Upper Limit</t>
+  </si>
+  <si>
     <t>ALB_LBCLSIG</t>
   </si>
   <si>
@@ -871,13 +883,7 @@
     <t>C82515</t>
   </si>
   <si>
-    <t>Lab Panel Name</t>
-  </si>
-  <si>
-    <t>Normal Range Lower Limit</t>
-  </si>
-  <si>
-    <t>Normal Range Upper Limit</t>
+    <t>C82535</t>
   </si>
 </sst>
 </file>
@@ -1274,13 +1280,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="20.5703125" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
   </cols>
@@ -1421,25 +1426,25 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T2">
         <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="s">
         <v>44</v>
@@ -1477,34 +1482,34 @@
         <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3">
         <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1536,31 +1541,31 @@
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4">
         <v>200</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1592,34 +1597,34 @@
         <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5">
         <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1651,46 +1656,46 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>47</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1722,49 +1727,49 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1796,13 +1801,13 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>42</v>
@@ -1811,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1823,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1858,49 +1863,49 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
         <v>47</v>
-      </c>
-      <c r="S9" t="s">
-        <v>46</v>
       </c>
       <c r="T9">
         <v>20</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1932,31 +1937,34 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
+        <v>285</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T10">
         <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1988,22 +1996,22 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11">
         <v>8</v>
@@ -2012,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2047,22 +2055,22 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -2071,10 +2079,10 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2106,51 +2114,54 @@
         <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>77</v>
       </c>
       <c r="AD13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -2162,7 +2173,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
@@ -2171,34 +2182,34 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14">
         <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD14" t="s">
         <v>44</v>
@@ -2209,10 +2220,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -2224,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -2233,45 +2244,45 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -2283,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -2292,42 +2303,42 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T16">
         <v>200</v>
       </c>
       <c r="AD16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -2339,7 +2350,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -2348,45 +2359,45 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q17">
         <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17">
         <v>10</v>
       </c>
       <c r="AD17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -2398,7 +2409,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -2407,57 +2418,57 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" t="s">
         <v>47</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2469,7 +2480,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -2478,60 +2489,60 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -2543,7 +2554,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
@@ -2552,28 +2563,28 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q20">
         <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -2582,18 +2593,18 @@
         <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -2605,7 +2616,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -2614,60 +2625,60 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
         <v>47</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
       </c>
       <c r="T21">
         <v>20</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Z21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AA21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2679,7 +2690,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
         <v>39</v>
@@ -2688,42 +2699,45 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N22" t="s">
+        <v>285</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q22">
         <v>9</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T22">
         <v>100</v>
       </c>
       <c r="AD22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2735,7 +2749,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
         <v>39</v>
@@ -2744,25 +2758,25 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q23">
         <v>10</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -2771,18 +2785,18 @@
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2794,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
@@ -2803,25 +2817,25 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q24">
         <v>11</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -2830,86 +2844,89 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="O25" t="s">
         <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" t="s">
-        <v>121</v>
-      </c>
-      <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>101</v>
       </c>
       <c r="Q25">
         <v>12</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>77</v>
       </c>
       <c r="AD25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -2921,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
@@ -2930,34 +2947,34 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T26">
         <v>100</v>
       </c>
       <c r="V26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD26" t="s">
         <v>44</v>
@@ -2968,10 +2985,10 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -2983,7 +3000,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
         <v>39</v>
@@ -2992,45 +3009,45 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T27">
         <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -3042,7 +3059,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
@@ -3051,42 +3068,42 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T28">
         <v>200</v>
       </c>
       <c r="AD28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -3098,7 +3115,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
@@ -3107,45 +3124,45 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q29">
         <v>4</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29">
         <v>10</v>
       </c>
       <c r="AD29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -3157,7 +3174,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
@@ -3166,57 +3183,57 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q30">
         <v>5</v>
       </c>
       <c r="R30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" t="s">
         <v>47</v>
-      </c>
-      <c r="S30" t="s">
-        <v>46</v>
       </c>
       <c r="T30">
         <v>100</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -3228,7 +3245,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
         <v>39</v>
@@ -3237,54 +3254,60 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>71</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q31">
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>77</v>
       </c>
       <c r="AD31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -3296,7 +3319,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
@@ -3305,28 +3328,28 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>7</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T32">
         <v>8</v>
@@ -3335,18 +3358,18 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -3358,7 +3381,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -3367,60 +3390,60 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q33">
         <v>8</v>
       </c>
       <c r="R33" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" t="s">
         <v>47</v>
-      </c>
-      <c r="S33" t="s">
-        <v>46</v>
       </c>
       <c r="T33">
         <v>20</v>
       </c>
       <c r="W33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AA33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -3432,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -3441,42 +3464,45 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M34" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
       </c>
       <c r="P34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q34">
         <v>9</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T34">
         <v>100</v>
       </c>
       <c r="AD34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -3488,7 +3514,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
         <v>39</v>
@@ -3497,25 +3523,25 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q35">
         <v>10</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T35">
         <v>8</v>
@@ -3524,18 +3550,18 @@
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -3547,7 +3573,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -3556,25 +3582,25 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q36">
         <v>11</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -3583,18 +3609,18 @@
         <v>2</v>
       </c>
       <c r="AD36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -3606,7 +3632,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I37" t="s">
         <v>39</v>
@@ -3615,54 +3641,57 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q37">
         <v>12</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>77</v>
       </c>
       <c r="AD37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3674,7 +3703,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s">
         <v>39</v>
@@ -3683,34 +3712,34 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T38">
         <v>100</v>
       </c>
       <c r="V38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD38" t="s">
         <v>44</v>
@@ -3721,10 +3750,10 @@
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -3736,7 +3765,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -3745,45 +3774,45 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39">
         <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3795,7 +3824,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -3804,42 +3833,42 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T40">
         <v>200</v>
       </c>
       <c r="AD40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3851,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
@@ -3860,45 +3889,45 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q41">
         <v>4</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41">
         <v>10</v>
       </c>
       <c r="AD41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3910,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
@@ -3919,57 +3948,57 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42" t="s">
+        <v>48</v>
+      </c>
+      <c r="S42" t="s">
         <v>47</v>
-      </c>
-      <c r="S42" t="s">
-        <v>46</v>
       </c>
       <c r="T42">
         <v>100</v>
       </c>
       <c r="W42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -3981,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -3990,60 +4019,60 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q43">
         <v>6</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
@@ -4055,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
@@ -4064,28 +4093,28 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>7</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T44">
         <v>8</v>
@@ -4094,18 +4123,18 @@
         <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -4117,7 +4146,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -4126,60 +4155,60 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q45">
         <v>8</v>
       </c>
       <c r="R45" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" t="s">
         <v>47</v>
-      </c>
-      <c r="S45" t="s">
-        <v>46</v>
       </c>
       <c r="T45">
         <v>20</v>
       </c>
       <c r="W45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Z45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AA45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
@@ -4191,7 +4220,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -4200,42 +4229,45 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N46" t="s">
+        <v>285</v>
       </c>
       <c r="P46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q46">
         <v>9</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T46">
         <v>100</v>
       </c>
       <c r="AD46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -4247,7 +4279,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -4256,25 +4288,25 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P47" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q47">
         <v>10</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T47">
         <v>8</v>
@@ -4283,18 +4315,18 @@
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -4306,7 +4338,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
@@ -4315,25 +4347,25 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q48">
         <v>11</v>
       </c>
       <c r="R48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T48">
         <v>8</v>
@@ -4342,18 +4374,18 @@
         <v>2</v>
       </c>
       <c r="AD48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -4365,7 +4397,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
@@ -4374,54 +4406,57 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q49">
         <v>12</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z49" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>77</v>
       </c>
       <c r="AD49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -4433,7 +4468,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I50" t="s">
         <v>39</v>
@@ -4442,34 +4477,34 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T50">
         <v>100</v>
       </c>
       <c r="V50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD50" t="s">
         <v>44</v>
@@ -4480,10 +4515,10 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
@@ -4495,7 +4530,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -4504,45 +4539,45 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T51">
         <v>100</v>
       </c>
       <c r="V51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -4554,7 +4589,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I52" t="s">
         <v>39</v>
@@ -4563,42 +4598,42 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T52">
         <v>200</v>
       </c>
       <c r="AD52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -4610,7 +4645,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
@@ -4619,45 +4654,45 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q53">
         <v>4</v>
       </c>
       <c r="R53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53">
         <v>10</v>
       </c>
       <c r="AD53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -4669,7 +4704,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
@@ -4678,57 +4713,57 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
       <c r="R54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" t="s">
         <v>47</v>
-      </c>
-      <c r="S54" t="s">
-        <v>46</v>
       </c>
       <c r="T54">
         <v>100</v>
       </c>
       <c r="W54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -4740,7 +4775,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
@@ -4749,60 +4784,60 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q55">
         <v>6</v>
       </c>
       <c r="R55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -4814,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
@@ -4823,28 +4858,28 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>7</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T56">
         <v>8</v>
@@ -4853,18 +4888,18 @@
         <v>2</v>
       </c>
       <c r="AD56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -4876,7 +4911,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
@@ -4885,28 +4920,28 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q57">
         <v>8</v>
       </c>
       <c r="R57" t="s">
+        <v>48</v>
+      </c>
+      <c r="S57" t="s">
         <v>47</v>
-      </c>
-      <c r="S57" t="s">
-        <v>46</v>
       </c>
       <c r="T57">
         <v>20</v>
@@ -4915,33 +4950,33 @@
         <v>2</v>
       </c>
       <c r="W57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Z57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AA57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -4953,7 +4988,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
@@ -4962,42 +4997,45 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M58" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N58" t="s">
+        <v>285</v>
       </c>
       <c r="P58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q58">
         <v>9</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T58">
         <v>100</v>
       </c>
       <c r="AD58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -5009,7 +5047,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I59" t="s">
         <v>39</v>
@@ -5018,25 +5056,25 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q59">
         <v>10</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T59">
         <v>8</v>
@@ -5045,18 +5083,18 @@
         <v>2</v>
       </c>
       <c r="AD59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -5068,7 +5106,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
@@ -5077,25 +5115,25 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q60">
         <v>11</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T60">
         <v>8</v>
@@ -5104,18 +5142,18 @@
         <v>2</v>
       </c>
       <c r="AD60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -5127,7 +5165,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
         <v>39</v>
@@ -5136,54 +5174,57 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O61" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q61">
         <v>12</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z61" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>77</v>
       </c>
       <c r="AD61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -5195,7 +5236,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
@@ -5204,34 +5245,34 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T62">
         <v>100</v>
       </c>
       <c r="V62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD62" t="s">
         <v>44</v>
@@ -5242,10 +5283,10 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -5257,7 +5298,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I63" t="s">
         <v>39</v>
@@ -5266,45 +5307,45 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q63">
         <v>2</v>
       </c>
       <c r="R63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T63">
         <v>100</v>
       </c>
       <c r="V63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -5316,7 +5357,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
@@ -5325,42 +5366,42 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T64">
         <v>200</v>
       </c>
       <c r="AD64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -5372,7 +5413,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
@@ -5381,45 +5422,45 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q65">
         <v>4</v>
       </c>
       <c r="R65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65">
         <v>10</v>
       </c>
       <c r="AD65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -5431,7 +5472,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
@@ -5440,57 +5481,57 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" t="s">
         <v>47</v>
-      </c>
-      <c r="S66" t="s">
-        <v>46</v>
       </c>
       <c r="T66">
         <v>100</v>
       </c>
       <c r="W66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -5502,7 +5543,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I67" t="s">
         <v>39</v>
@@ -5511,54 +5552,60 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M67" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N67" t="s">
+        <v>71</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q67">
         <v>6</v>
       </c>
       <c r="R67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z67" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>77</v>
       </c>
       <c r="AD67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -5570,7 +5617,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
@@ -5579,28 +5626,28 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>7</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T68">
         <v>8</v>
@@ -5609,18 +5656,18 @@
         <v>2</v>
       </c>
       <c r="AD68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE68" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -5632,7 +5679,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I69" t="s">
         <v>39</v>
@@ -5641,39 +5688,39 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q69">
         <v>8</v>
       </c>
       <c r="S69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T69">
         <v>20</v>
       </c>
       <c r="AD69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -5685,7 +5732,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I70" t="s">
         <v>39</v>
@@ -5694,42 +5741,45 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M70" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N70" t="s">
+        <v>285</v>
       </c>
       <c r="P70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q70">
         <v>9</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T70">
         <v>100</v>
       </c>
       <c r="AD70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -5741,7 +5791,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I71" t="s">
         <v>39</v>
@@ -5750,25 +5800,25 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q71">
         <v>10</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T71">
         <v>8</v>
@@ -5777,18 +5827,18 @@
         <v>2</v>
       </c>
       <c r="AD71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -5800,7 +5850,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
@@ -5809,25 +5859,25 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q72">
         <v>11</v>
       </c>
       <c r="R72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T72">
         <v>8</v>
@@ -5836,18 +5886,18 @@
         <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
@@ -5859,7 +5909,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
@@ -5868,54 +5918,57 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O73" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q73">
         <v>12</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="W73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>77</v>
       </c>
       <c r="AD73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -5927,7 +5980,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I74" t="s">
         <v>39</v>
@@ -5936,34 +5989,34 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M74" t="s">
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T74">
         <v>100</v>
       </c>
       <c r="V74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD74" t="s">
         <v>44</v>
@@ -5974,10 +6027,10 @@
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -5989,7 +6042,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I75" t="s">
         <v>39</v>
@@ -5998,45 +6051,45 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T75">
         <v>100</v>
       </c>
       <c r="V75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -6048,7 +6101,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I76" t="s">
         <v>39</v>
@@ -6057,42 +6110,42 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q76">
         <v>3</v>
       </c>
       <c r="R76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T76">
         <v>200</v>
       </c>
       <c r="AD76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -6104,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I77" t="s">
         <v>39</v>
@@ -6113,45 +6166,45 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q77">
         <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77">
         <v>10</v>
       </c>
       <c r="AD77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
@@ -6163,7 +6216,7 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I78" t="s">
         <v>39</v>
@@ -6172,57 +6225,57 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q78">
         <v>5</v>
       </c>
       <c r="R78" t="s">
+        <v>48</v>
+      </c>
+      <c r="S78" t="s">
         <v>47</v>
-      </c>
-      <c r="S78" t="s">
-        <v>46</v>
       </c>
       <c r="T78">
         <v>100</v>
       </c>
       <c r="W78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -6234,7 +6287,7 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
@@ -6243,60 +6296,60 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q79">
         <v>6</v>
       </c>
       <c r="R79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T79">
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
@@ -6308,7 +6361,7 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
@@ -6317,28 +6370,28 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>7</v>
       </c>
       <c r="R80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T80">
         <v>8</v>
@@ -6347,18 +6400,18 @@
         <v>2</v>
       </c>
       <c r="AD80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
@@ -6370,7 +6423,7 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I81" t="s">
         <v>39</v>
@@ -6379,60 +6432,60 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L81" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q81">
         <v>8</v>
       </c>
       <c r="R81" t="s">
+        <v>48</v>
+      </c>
+      <c r="S81" t="s">
         <v>47</v>
-      </c>
-      <c r="S81" t="s">
-        <v>46</v>
       </c>
       <c r="T81">
         <v>20</v>
       </c>
       <c r="W81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
@@ -6444,7 +6497,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I82" t="s">
         <v>39</v>
@@ -6453,42 +6506,45 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M82" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N82" t="s">
+        <v>285</v>
       </c>
       <c r="P82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q82">
         <v>9</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T82">
         <v>100</v>
       </c>
       <c r="AD82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
         <v>35</v>
@@ -6500,7 +6556,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I83" t="s">
         <v>39</v>
@@ -6509,25 +6565,25 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q83">
         <v>10</v>
       </c>
       <c r="R83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T83">
         <v>8</v>
@@ -6536,18 +6592,18 @@
         <v>2</v>
       </c>
       <c r="AD83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
@@ -6559,7 +6615,7 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I84" t="s">
         <v>39</v>
@@ -6568,25 +6624,25 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q84">
         <v>11</v>
       </c>
       <c r="R84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T84">
         <v>8</v>
@@ -6595,18 +6651,18 @@
         <v>2</v>
       </c>
       <c r="AD84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
@@ -6618,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I85" t="s">
         <v>39</v>
@@ -6627,54 +6683,57 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q85">
         <v>12</v>
       </c>
       <c r="R85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="W85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z85" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>77</v>
       </c>
       <c r="AD85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
@@ -6686,7 +6745,7 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I86" t="s">
         <v>39</v>
@@ -6695,34 +6754,34 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M86" t="s">
         <v>44</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q86">
         <v>1</v>
       </c>
       <c r="R86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T86">
         <v>100</v>
       </c>
       <c r="V86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD86" t="s">
         <v>44</v>
@@ -6733,10 +6792,10 @@
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -6748,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I87" t="s">
         <v>39</v>
@@ -6757,45 +6816,45 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q87">
         <v>2</v>
       </c>
       <c r="R87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T87">
         <v>100</v>
       </c>
       <c r="V87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -6807,7 +6866,7 @@
         <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I88" t="s">
         <v>39</v>
@@ -6816,42 +6875,42 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L88" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q88">
         <v>3</v>
       </c>
       <c r="R88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T88">
         <v>200</v>
       </c>
       <c r="AD88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D89" t="s">
         <v>35</v>
@@ -6863,7 +6922,7 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I89" t="s">
         <v>39</v>
@@ -6872,45 +6931,45 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q89">
         <v>4</v>
       </c>
       <c r="R89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89">
         <v>10</v>
       </c>
       <c r="AD89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
@@ -6922,7 +6981,7 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I90" t="s">
         <v>39</v>
@@ -6931,57 +6990,57 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q90">
         <v>5</v>
       </c>
       <c r="R90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S90" t="s">
         <v>47</v>
-      </c>
-      <c r="S90" t="s">
-        <v>46</v>
       </c>
       <c r="T90">
         <v>100</v>
       </c>
       <c r="W90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
         <v>35</v>
@@ -6993,7 +7052,7 @@
         <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I91" t="s">
         <v>39</v>
@@ -7002,54 +7061,60 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M91" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N91" t="s">
+        <v>71</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q91">
         <v>6</v>
       </c>
       <c r="R91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T91">
         <v>1</v>
       </c>
       <c r="W91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z91" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>77</v>
       </c>
       <c r="AD91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -7061,7 +7126,7 @@
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I92" t="s">
         <v>39</v>
@@ -7070,28 +7135,28 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L92" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N92" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>7</v>
       </c>
       <c r="R92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T92">
         <v>8</v>
@@ -7100,18 +7165,18 @@
         <v>2</v>
       </c>
       <c r="AD92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE92" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -7123,7 +7188,7 @@
         <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I93" t="s">
         <v>39</v>
@@ -7132,60 +7197,60 @@
         <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L93" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q93">
         <v>8</v>
       </c>
       <c r="R93" t="s">
+        <v>48</v>
+      </c>
+      <c r="S93" t="s">
         <v>47</v>
-      </c>
-      <c r="S93" t="s">
-        <v>46</v>
       </c>
       <c r="T93">
         <v>20</v>
       </c>
       <c r="W93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y93" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z93" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AA93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD93" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE93" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
         <v>35</v>
@@ -7197,7 +7262,7 @@
         <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I94" t="s">
         <v>39</v>
@@ -7206,42 +7271,45 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L94" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M94" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N94" t="s">
+        <v>285</v>
       </c>
       <c r="P94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q94">
         <v>9</v>
       </c>
       <c r="R94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T94">
         <v>100</v>
       </c>
       <c r="AD94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
         <v>35</v>
@@ -7253,7 +7321,7 @@
         <v>37</v>
       </c>
       <c r="H95" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I95" t="s">
         <v>39</v>
@@ -7262,25 +7330,25 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L95" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q95">
         <v>10</v>
       </c>
       <c r="R95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T95">
         <v>8</v>
@@ -7289,18 +7357,18 @@
         <v>2</v>
       </c>
       <c r="AD95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
         <v>35</v>
@@ -7312,7 +7380,7 @@
         <v>37</v>
       </c>
       <c r="H96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I96" t="s">
         <v>39</v>
@@ -7321,25 +7389,25 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L96" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q96">
         <v>11</v>
       </c>
       <c r="R96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T96">
         <v>8</v>
@@ -7348,18 +7416,18 @@
         <v>2</v>
       </c>
       <c r="AD96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -7371,7 +7439,7 @@
         <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I97" t="s">
         <v>39</v>
@@ -7380,54 +7448,57 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L97" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q97">
         <v>12</v>
       </c>
       <c r="R97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T97">
         <v>1</v>
       </c>
       <c r="W97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y97" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z97" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>77</v>
       </c>
       <c r="AD97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE97" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D98" t="s">
         <v>35</v>
@@ -7439,7 +7510,7 @@
         <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I98" t="s">
         <v>39</v>
@@ -7448,34 +7519,34 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L98" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M98" t="s">
         <v>44</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q98">
         <v>1</v>
       </c>
       <c r="R98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T98">
         <v>100</v>
       </c>
       <c r="V98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD98" t="s">
         <v>44</v>
@@ -7486,10 +7557,10 @@
     </row>
     <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -7501,7 +7572,7 @@
         <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I99" t="s">
         <v>39</v>
@@ -7510,45 +7581,45 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L99" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q99">
         <v>2</v>
       </c>
       <c r="R99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T99">
         <v>100</v>
       </c>
       <c r="V99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -7560,7 +7631,7 @@
         <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I100" t="s">
         <v>39</v>
@@ -7569,42 +7640,42 @@
         <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L100" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q100">
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T100">
         <v>200</v>
       </c>
       <c r="AD100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
@@ -7616,7 +7687,7 @@
         <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I101" t="s">
         <v>39</v>
@@ -7625,45 +7696,45 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L101" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q101">
         <v>4</v>
       </c>
       <c r="R101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101">
         <v>10</v>
       </c>
       <c r="AD101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -7675,7 +7746,7 @@
         <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I102" t="s">
         <v>39</v>
@@ -7684,57 +7755,57 @@
         <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q102">
         <v>5</v>
       </c>
       <c r="R102" t="s">
+        <v>48</v>
+      </c>
+      <c r="S102" t="s">
         <v>47</v>
-      </c>
-      <c r="S102" t="s">
-        <v>46</v>
       </c>
       <c r="T102">
         <v>100</v>
       </c>
       <c r="W102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X102" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC102" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -7746,7 +7817,7 @@
         <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I103" t="s">
         <v>39</v>
@@ -7755,54 +7826,60 @@
         <v>40</v>
       </c>
       <c r="K103" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M103" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N103" t="s">
+        <v>71</v>
       </c>
       <c r="O103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q103">
         <v>6</v>
       </c>
       <c r="R103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T103">
         <v>1</v>
       </c>
       <c r="W103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z103" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>77</v>
       </c>
       <c r="AD103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
@@ -7814,7 +7891,7 @@
         <v>37</v>
       </c>
       <c r="H104" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I104" t="s">
         <v>39</v>
@@ -7823,28 +7900,28 @@
         <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L104" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N104" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>7</v>
       </c>
       <c r="R104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S104" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T104">
         <v>8</v>
@@ -7853,18 +7930,18 @@
         <v>2</v>
       </c>
       <c r="AD104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE104" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -7876,7 +7953,7 @@
         <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I105" t="s">
         <v>39</v>
@@ -7885,60 +7962,60 @@
         <v>40</v>
       </c>
       <c r="K105" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L105" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q105">
         <v>8</v>
       </c>
       <c r="R105" t="s">
+        <v>48</v>
+      </c>
+      <c r="S105" t="s">
         <v>47</v>
-      </c>
-      <c r="S105" t="s">
-        <v>46</v>
       </c>
       <c r="T105">
         <v>20</v>
       </c>
       <c r="W105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X105" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y105" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z105" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE105" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -7950,7 +8027,7 @@
         <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I106" t="s">
         <v>39</v>
@@ -7959,42 +8036,45 @@
         <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L106" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M106" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N106" t="s">
+        <v>285</v>
       </c>
       <c r="P106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q106">
         <v>9</v>
       </c>
       <c r="R106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T106">
         <v>100</v>
       </c>
       <c r="AD106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D107" t="s">
         <v>35</v>
@@ -8006,7 +8086,7 @@
         <v>37</v>
       </c>
       <c r="H107" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I107" t="s">
         <v>39</v>
@@ -8015,25 +8095,25 @@
         <v>40</v>
       </c>
       <c r="K107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M107" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q107">
         <v>10</v>
       </c>
       <c r="R107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T107">
         <v>8</v>
@@ -8042,18 +8122,18 @@
         <v>2</v>
       </c>
       <c r="AD107" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE107" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -8065,7 +8145,7 @@
         <v>37</v>
       </c>
       <c r="H108" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I108" t="s">
         <v>39</v>
@@ -8074,25 +8154,25 @@
         <v>40</v>
       </c>
       <c r="K108" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M108" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q108">
         <v>11</v>
       </c>
       <c r="R108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T108">
         <v>8</v>
@@ -8101,18 +8181,18 @@
         <v>2</v>
       </c>
       <c r="AD108" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE108" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D109" t="s">
         <v>35</v>
@@ -8124,7 +8204,7 @@
         <v>37</v>
       </c>
       <c r="H109" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I109" t="s">
         <v>39</v>
@@ -8133,54 +8213,57 @@
         <v>40</v>
       </c>
       <c r="K109" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L109" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M109" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O109" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q109">
         <v>12</v>
       </c>
       <c r="R109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T109">
         <v>1</v>
       </c>
       <c r="W109" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X109" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y109" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z109" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>77</v>
       </c>
       <c r="AD109" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE109" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
         <v>35</v>
@@ -8192,7 +8275,7 @@
         <v>37</v>
       </c>
       <c r="H110" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I110" t="s">
         <v>39</v>
@@ -8201,34 +8284,34 @@
         <v>40</v>
       </c>
       <c r="K110" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L110" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M110" t="s">
         <v>44</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T110">
         <v>100</v>
       </c>
       <c r="V110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD110" t="s">
         <v>44</v>
@@ -8239,10 +8322,10 @@
     </row>
     <row r="111" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -8254,7 +8337,7 @@
         <v>37</v>
       </c>
       <c r="H111" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I111" t="s">
         <v>39</v>
@@ -8263,45 +8346,45 @@
         <v>40</v>
       </c>
       <c r="K111" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L111" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q111">
         <v>2</v>
       </c>
       <c r="R111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T111">
         <v>100</v>
       </c>
       <c r="V111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>35</v>
@@ -8313,7 +8396,7 @@
         <v>37</v>
       </c>
       <c r="H112" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I112" t="s">
         <v>39</v>
@@ -8322,42 +8405,42 @@
         <v>40</v>
       </c>
       <c r="K112" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L112" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q112">
         <v>3</v>
       </c>
       <c r="R112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T112">
         <v>200</v>
       </c>
       <c r="AD112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -8369,7 +8452,7 @@
         <v>37</v>
       </c>
       <c r="H113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I113" t="s">
         <v>39</v>
@@ -8378,45 +8461,45 @@
         <v>40</v>
       </c>
       <c r="K113" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L113" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q113">
         <v>4</v>
       </c>
       <c r="R113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113">
         <v>10</v>
       </c>
       <c r="AD113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D114" t="s">
         <v>35</v>
@@ -8428,7 +8511,7 @@
         <v>37</v>
       </c>
       <c r="H114" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I114" t="s">
         <v>39</v>
@@ -8437,57 +8520,57 @@
         <v>40</v>
       </c>
       <c r="K114" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L114" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q114">
         <v>5</v>
       </c>
       <c r="R114" t="s">
+        <v>48</v>
+      </c>
+      <c r="S114" t="s">
         <v>47</v>
-      </c>
-      <c r="S114" t="s">
-        <v>46</v>
       </c>
       <c r="T114">
         <v>100</v>
       </c>
       <c r="W114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D115" t="s">
         <v>35</v>
@@ -8499,7 +8582,7 @@
         <v>37</v>
       </c>
       <c r="H115" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I115" t="s">
         <v>39</v>
@@ -8508,60 +8591,60 @@
         <v>40</v>
       </c>
       <c r="K115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L115" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O115" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q115">
         <v>6</v>
       </c>
       <c r="R115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T115">
         <v>1</v>
       </c>
       <c r="W115" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y115" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z115" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE115" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D116" t="s">
         <v>35</v>
@@ -8573,7 +8656,7 @@
         <v>37</v>
       </c>
       <c r="H116" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I116" t="s">
         <v>39</v>
@@ -8582,28 +8665,28 @@
         <v>40</v>
       </c>
       <c r="K116" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L116" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>7</v>
       </c>
       <c r="R116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T116">
         <v>8</v>
@@ -8612,18 +8695,18 @@
         <v>2</v>
       </c>
       <c r="AD116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE116" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C117" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
         <v>35</v>
@@ -8635,7 +8718,7 @@
         <v>37</v>
       </c>
       <c r="H117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I117" t="s">
         <v>39</v>
@@ -8644,60 +8727,60 @@
         <v>40</v>
       </c>
       <c r="K117" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N117" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P117" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q117">
         <v>8</v>
       </c>
       <c r="R117" t="s">
+        <v>48</v>
+      </c>
+      <c r="S117" t="s">
         <v>47</v>
-      </c>
-      <c r="S117" t="s">
-        <v>46</v>
       </c>
       <c r="T117">
         <v>20</v>
       </c>
       <c r="W117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y117" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z117" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE117" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D118" t="s">
         <v>35</v>
@@ -8709,7 +8792,7 @@
         <v>37</v>
       </c>
       <c r="H118" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I118" t="s">
         <v>39</v>
@@ -8718,42 +8801,45 @@
         <v>40</v>
       </c>
       <c r="K118" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L118" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M118" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N118" t="s">
+        <v>285</v>
       </c>
       <c r="P118" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q118">
         <v>9</v>
       </c>
       <c r="R118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T118">
         <v>100</v>
       </c>
       <c r="AD118" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE118" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C119" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D119" t="s">
         <v>35</v>
@@ -8765,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="H119" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I119" t="s">
         <v>39</v>
@@ -8774,25 +8860,25 @@
         <v>40</v>
       </c>
       <c r="K119" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M119" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="Q119">
         <v>10</v>
       </c>
       <c r="R119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T119">
         <v>8</v>
@@ -8801,18 +8887,18 @@
         <v>2</v>
       </c>
       <c r="AD119" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE119" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C120" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
@@ -8824,7 +8910,7 @@
         <v>37</v>
       </c>
       <c r="H120" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I120" t="s">
         <v>39</v>
@@ -8833,25 +8919,25 @@
         <v>40</v>
       </c>
       <c r="K120" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M120" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="Q120">
         <v>11</v>
       </c>
       <c r="R120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S120" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T120">
         <v>8</v>
@@ -8860,18 +8946,18 @@
         <v>2</v>
       </c>
       <c r="AD120" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE120" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
         <v>35</v>
@@ -8883,7 +8969,7 @@
         <v>37</v>
       </c>
       <c r="H121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I121" t="s">
         <v>39</v>
@@ -8892,46 +8978,49 @@
         <v>40</v>
       </c>
       <c r="K121" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L121" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M121" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O121" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q121">
         <v>12</v>
       </c>
       <c r="R121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T121">
         <v>1</v>
       </c>
       <c r="W121" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X121" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y121" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z121" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>77</v>
       </c>
       <c r="AD121" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AE121" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF4A32-EF94-4B27-99B6-1C4F5EFBBBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08ECF19-617F-4E75-9EC5-91399DDA0308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Collection_LB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_LB!$A$1:$AG$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_LB!$A$1:$AG$119</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="278">
   <si>
     <t>package_date</t>
   </si>
@@ -301,9 +301,6 @@
     <t>LBORRESU when LBTESTCD = ALB</t>
   </si>
   <si>
-    <t>ALB_LBMETHOD</t>
-  </si>
-  <si>
     <t>LBMETHOD</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>LBORRESU when LBTESTCD = BILI</t>
   </si>
   <si>
-    <t>BILI_LBMETHOD</t>
-  </si>
-  <si>
     <t>BILI_LBORNRLO</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>COTININE_LBSPEC</t>
   </si>
   <si>
-    <t>COTININE_LBFAST</t>
-  </si>
-  <si>
     <t>COTININE_LBORRES</t>
   </si>
   <si>
@@ -439,9 +430,6 @@
     <t>LBORRESU when LBTESTCD = COTININE</t>
   </si>
   <si>
-    <t>COTININE_LBMETHOD</t>
-  </si>
-  <si>
     <t>COTININE_LBORNRLO</t>
   </si>
   <si>
@@ -496,9 +484,6 @@
     <t>LBORRESU when LBTESTCD = CREAT</t>
   </si>
   <si>
-    <t>CREAT_LBMETHOD</t>
-  </si>
-  <si>
     <t>CREAT_LBORNRLO</t>
   </si>
   <si>
@@ -598,9 +583,6 @@
     <t>HCG_LBSPEC</t>
   </si>
   <si>
-    <t>HCG_LBFAST</t>
-  </si>
-  <si>
     <t>HCG_LBORRES</t>
   </si>
   <si>
@@ -613,9 +595,6 @@
     <t>LBORRESU when LBTESTCD = HCG</t>
   </si>
   <si>
-    <t>HCG_LBMETHOD</t>
-  </si>
-  <si>
     <t>HCG_LBORNRLO</t>
   </si>
   <si>
@@ -676,9 +655,6 @@
     <t>LBORRESU when LBTESTCD = K</t>
   </si>
   <si>
-    <t>K_LBMETHOD</t>
-  </si>
-  <si>
     <t>K_LBORNRLO</t>
   </si>
   <si>
@@ -718,9 +694,6 @@
     <t>NICOTINE_LBSPEC</t>
   </si>
   <si>
-    <t>NICOTINE_LBFAST</t>
-  </si>
-  <si>
     <t>NICOTINE_LBORRES</t>
   </si>
   <si>
@@ -736,9 +709,6 @@
     <t>LBORRESU when LBTESTCD = NICOTINE</t>
   </si>
   <si>
-    <t>NICOTINE_LBMETHOD</t>
-  </si>
-  <si>
     <t>NICOTINE_LBORNRLO</t>
   </si>
   <si>
@@ -778,9 +748,6 @@
     <t>NORNCTN_LBSPEC</t>
   </si>
   <si>
-    <t>NORNCTN_LBFAST</t>
-  </si>
-  <si>
     <t>NORNCTN_LBORRES</t>
   </si>
   <si>
@@ -799,9 +766,6 @@
     <t>LBORRESU when LBTESTCD = NORNCTN</t>
   </si>
   <si>
-    <t>NORNCTN_LBMETHOD</t>
-  </si>
-  <si>
     <t>NORNCTN_LBORNRLO</t>
   </si>
   <si>
@@ -856,9 +820,6 @@
     <t>LBORRESU when LBTESTCD = SODIUM</t>
   </si>
   <si>
-    <t>SODIUM_LBMETHOD</t>
-  </si>
-  <si>
     <t>SODIUM_LBORNRLO</t>
   </si>
   <si>
@@ -874,13 +835,28 @@
     <t>C82535</t>
   </si>
   <si>
+    <t>TEST STRIP</t>
+  </si>
+  <si>
+    <t>C50322</t>
+  </si>
+  <si>
+    <t>GLUCUA</t>
+  </si>
+  <si>
+    <t>GLUCUA_VERTICAL</t>
+  </si>
+  <si>
+    <t>Glucose in Urine by Dipstickn (Vertical)</t>
+  </si>
+  <si>
     <t>Lab Panel Name</t>
   </si>
   <si>
+    <t>Normal Range Upper Limit</t>
+  </si>
+  <si>
     <t>Normal Range Lower Limit</t>
-  </si>
-  <si>
-    <t>Normal Range Upper Limit</t>
   </si>
 </sst>
 </file>
@@ -909,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +896,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -965,13 +947,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,16 +1266,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P120"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="P5" t="s">
         <v>57</v>
@@ -1934,16 +1934,13 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" t="s">
-        <v>282</v>
-      </c>
-      <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1952,16 +1949,19 @@
         <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T10">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
       </c>
       <c r="AD10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2017,10 +2017,10 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2052,13 +2052,13 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>285</v>
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -2067,27 +2067,39 @@
         <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T12">
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>76</v>
       </c>
       <c r="AD12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -2099,7 +2111,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
@@ -2108,19 +2120,19 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>275</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
         <v>45</v>
@@ -2129,69 +2141,60 @@
         <v>46</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>72</v>
-      </c>
-      <c r="X13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>48</v>
       </c>
       <c r="AD13" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
         <v>104</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>105</v>
       </c>
       <c r="L14" t="s">
         <v>107</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
         <v>45</v>
@@ -2205,55 +2208,52 @@
       <c r="V14" t="s">
         <v>47</v>
       </c>
-      <c r="AB14" t="s">
-        <v>48</v>
-      </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
         <v>104</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s">
-        <v>105</v>
       </c>
       <c r="L15" t="s">
         <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" t="s">
         <v>45</v>
@@ -2262,538 +2262,550 @@
         <v>46</v>
       </c>
       <c r="T15">
-        <v>100</v>
-      </c>
-      <c r="V15" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="AD15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AE15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
         <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>105</v>
       </c>
       <c r="L16" t="s">
         <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" t="s">
+        <v>57</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="s">
         <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T16">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AE16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
         <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>105</v>
       </c>
       <c r="L17" t="s">
         <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>281</v>
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T17">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="W17" t="s">
+        <v>64</v>
+      </c>
+      <c r="X17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>67</v>
       </c>
       <c r="AD17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
       </c>
       <c r="L18" t="s">
         <v>111</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s">
         <v>46</v>
       </c>
       <c r="T18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>76</v>
       </c>
       <c r="AD18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
         <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
-        <v>105</v>
       </c>
       <c r="L19" t="s">
         <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>105</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="W19" t="s">
-        <v>72</v>
-      </c>
-      <c r="X19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
       </c>
       <c r="AD19" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" t="s">
-        <v>105</v>
-      </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R20" t="s">
         <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T20">
-        <v>8</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="W20" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>76</v>
       </c>
       <c r="AD20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AE20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
         <v>104</v>
       </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21">
         <v>8</v>
       </c>
-      <c r="R21" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>76</v>
+      <c r="U21">
+        <v>2</v>
       </c>
       <c r="AD21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
         <v>102</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
         <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" t="s">
-        <v>105</v>
       </c>
       <c r="L22" t="s">
         <v>118</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R22" t="s">
         <v>45</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T22">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
       </c>
       <c r="AD22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AE22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
         <v>103</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
         <v>104</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" t="s">
-        <v>105</v>
       </c>
       <c r="L23" t="s">
         <v>119</v>
       </c>
       <c r="M23" t="s">
-        <v>96</v>
-      </c>
-      <c r="P23" t="s">
-        <v>284</v>
+        <v>99</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R23" t="s">
         <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T23">
-        <v>8</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>76</v>
       </c>
       <c r="AD23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2805,7 +2817,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
@@ -2814,45 +2826,48 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
         <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T24">
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>48</v>
       </c>
       <c r="AD24" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="AE24" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2864,7 +2879,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
@@ -2873,19 +2888,19 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>101</v>
+        <v>50</v>
+      </c>
+      <c r="P25" t="s">
+        <v>51</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
         <v>45</v>
@@ -2894,69 +2909,57 @@
         <v>46</v>
       </c>
       <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>72</v>
-      </c>
-      <c r="X25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V25" t="s">
+        <v>47</v>
       </c>
       <c r="AD25" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AE25" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s">
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
         <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" t="s">
-        <v>125</v>
       </c>
       <c r="L26" t="s">
         <v>127</v>
       </c>
       <c r="M26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s">
-        <v>283</v>
+        <v>53</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="s">
         <v>45</v>
@@ -2965,237 +2968,249 @@
         <v>46</v>
       </c>
       <c r="T26">
-        <v>100</v>
-      </c>
-      <c r="V26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AD26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE26" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
         <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
-        <v>125</v>
       </c>
       <c r="L27" t="s">
         <v>128</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R27" t="s">
         <v>45</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T27">
-        <v>100</v>
-      </c>
-      <c r="V27" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" t="s">
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
         <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" t="s">
-        <v>125</v>
       </c>
       <c r="L28" t="s">
         <v>129</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="N28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s">
+        <v>63</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S28" t="s">
         <v>46</v>
       </c>
       <c r="T28">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="W28" t="s">
+        <v>64</v>
+      </c>
+      <c r="X28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>67</v>
       </c>
       <c r="AD28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
         <v>122</v>
       </c>
-      <c r="C29" t="s">
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
         <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>125</v>
       </c>
       <c r="L29" t="s">
         <v>130</v>
       </c>
       <c r="M29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>281</v>
+        <v>78</v>
+      </c>
+      <c r="N29" t="s">
+        <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
       </c>
       <c r="AD29" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
         <v>122</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" t="s">
-        <v>125</v>
-      </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R30" t="s">
         <v>47</v>
@@ -3204,146 +3219,131 @@
         <v>46</v>
       </c>
       <c r="T30">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="X30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>76</v>
       </c>
       <c r="AD30" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
         <v>122</v>
       </c>
-      <c r="C31" t="s">
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" t="s">
-        <v>125</v>
-      </c>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" t="s">
-        <v>70</v>
-      </c>
-      <c r="O31" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R31" t="s">
         <v>45</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="W31" t="s">
-        <v>72</v>
-      </c>
-      <c r="X31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
       </c>
       <c r="AD31" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AE31" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
         <v>123</v>
       </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" t="s">
-        <v>125</v>
-      </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s">
         <v>80</v>
@@ -3355,92 +3355,89 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AE32" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
         <v>122</v>
       </c>
-      <c r="C33" t="s">
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
         <v>123</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" t="s">
-        <v>125</v>
-      </c>
       <c r="L33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" t="s">
-        <v>85</v>
-      </c>
-      <c r="P33" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s">
         <v>46</v>
       </c>
       <c r="T33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s">
         <v>76</v>
       </c>
       <c r="AD33" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AE33" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -3452,7 +3449,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -3461,22 +3458,19 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M34" t="s">
-        <v>93</v>
-      </c>
-      <c r="N34" t="s">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R34" t="s">
         <v>45</v>
@@ -3487,19 +3481,25 @@
       <c r="T34">
         <v>100</v>
       </c>
+      <c r="V34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>48</v>
+      </c>
       <c r="AD34" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="AE34" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -3511,7 +3511,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
         <v>39</v>
@@ -3520,45 +3520,45 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M35" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R35" t="s">
         <v>45</v>
       </c>
       <c r="S35" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T35">
-        <v>8</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V35" t="s">
+        <v>47</v>
       </c>
       <c r="AD35" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="AE35" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -3570,7 +3570,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -3579,45 +3579,42 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M36" t="s">
-        <v>98</v>
-      </c>
-      <c r="P36" t="s">
-        <v>285</v>
+        <v>53</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R36" t="s">
         <v>45</v>
       </c>
       <c r="S36" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T36">
-        <v>8</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD36" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="AE36" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -3629,7 +3626,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
         <v>39</v>
@@ -3638,57 +3635,45 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
-      </c>
-      <c r="O37" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" t="s">
+        <v>57</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R37" t="s">
         <v>45</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="W37" t="s">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="AE37" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3700,7 +3685,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
         <v>39</v>
@@ -3709,22 +3694,25 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
         <v>147</v>
       </c>
       <c r="M38" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="N38" t="s">
+        <v>62</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S38" t="s">
         <v>46</v>
@@ -3732,25 +3720,31 @@
       <c r="T38">
         <v>100</v>
       </c>
-      <c r="V38" t="s">
-        <v>47</v>
+      <c r="W38" t="s">
+        <v>64</v>
+      </c>
+      <c r="X38" t="s">
+        <v>65</v>
       </c>
       <c r="AB38" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>67</v>
       </c>
       <c r="AD38" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="AE38" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -3762,7 +3756,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -3771,19 +3765,22 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s">
         <v>148</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
-      </c>
-      <c r="P39" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="N39" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R39" t="s">
         <v>45</v>
@@ -3792,24 +3789,36 @@
         <v>46</v>
       </c>
       <c r="T39">
-        <v>100</v>
-      </c>
-      <c r="V39" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>76</v>
       </c>
       <c r="AD39" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AE39" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3821,7 +3830,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -3830,42 +3839,48 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
         <v>149</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="N40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s">
+        <v>142</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T40">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
       </c>
       <c r="AD40" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3877,7 +3892,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
@@ -3886,45 +3901,60 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>281</v>
+        <v>84</v>
+      </c>
+      <c r="N41" t="s">
+        <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T41">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="W41" t="s">
+        <v>87</v>
+      </c>
+      <c r="X41" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>76</v>
       </c>
       <c r="AD41" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="AE41" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3936,7 +3966,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
@@ -3945,57 +3975,45 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T42">
-        <v>100</v>
-      </c>
-      <c r="W42" t="s">
-        <v>64</v>
-      </c>
-      <c r="X42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
       </c>
       <c r="AD42" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="AE42" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -4007,7 +4025,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -4016,60 +4034,45 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
-      </c>
-      <c r="N43" t="s">
-        <v>70</v>
-      </c>
-      <c r="O43" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="P43" t="s">
+        <v>276</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R43" t="s">
         <v>45</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="W43" t="s">
-        <v>72</v>
-      </c>
-      <c r="X43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
       </c>
       <c r="AD43" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="AE43" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
@@ -4081,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
@@ -4090,48 +4093,57 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M44" t="s">
-        <v>78</v>
-      </c>
-      <c r="N44" t="s">
-        <v>79</v>
-      </c>
-      <c r="P44" t="s">
-        <v>146</v>
+        <v>99</v>
+      </c>
+      <c r="O44" t="s">
+        <v>100</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T44">
-        <v>8</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>76</v>
       </c>
       <c r="AD44" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AE44" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -4143,7 +4155,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -4152,60 +4164,48 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L45" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M45" t="s">
-        <v>84</v>
-      </c>
-      <c r="N45" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s">
         <v>46</v>
       </c>
       <c r="T45">
-        <v>20</v>
-      </c>
-      <c r="W45" t="s">
-        <v>87</v>
-      </c>
-      <c r="X45" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>48</v>
       </c>
       <c r="AD45" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AE45" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
@@ -4217,7 +4217,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -4226,22 +4226,19 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
-      </c>
-      <c r="N46" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="P46" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R46" t="s">
         <v>45</v>
@@ -4252,19 +4249,22 @@
       <c r="T46">
         <v>100</v>
       </c>
+      <c r="V46" t="s">
+        <v>47</v>
+      </c>
       <c r="AD46" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="AE46" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -4285,45 +4285,42 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M47" t="s">
-        <v>96</v>
-      </c>
-      <c r="P47" t="s">
-        <v>284</v>
+        <v>53</v>
+      </c>
+      <c r="O47" t="s">
+        <v>54</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R47" t="s">
         <v>45</v>
       </c>
       <c r="S47" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T47">
-        <v>8</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD47" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="AE47" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -4335,7 +4332,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
@@ -4344,45 +4341,45 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M48" t="s">
-        <v>98</v>
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R48" t="s">
         <v>45</v>
       </c>
       <c r="S48" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="T48">
-        <v>8</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD48" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AE48" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -4394,7 +4391,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
@@ -4403,57 +4400,57 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
-      </c>
-      <c r="O49" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="N49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s">
+        <v>63</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S49" t="s">
         <v>46</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="W49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="X49" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>67</v>
       </c>
       <c r="AD49" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AE49" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -4465,7 +4462,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s">
         <v>39</v>
@@ -4474,19 +4471,22 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s">
         <v>166</v>
       </c>
       <c r="M50" t="s">
-        <v>44</v>
-      </c>
-      <c r="P50" t="s">
-        <v>283</v>
+        <v>69</v>
+      </c>
+      <c r="N50" t="s">
+        <v>70</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R50" t="s">
         <v>45</v>
@@ -4495,27 +4495,36 @@
         <v>46</v>
       </c>
       <c r="T50">
-        <v>100</v>
-      </c>
-      <c r="V50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="W50" t="s">
+        <v>72</v>
+      </c>
+      <c r="X50" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>76</v>
       </c>
       <c r="AD50" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="AE50" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
@@ -4527,7 +4536,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -4536,45 +4545,48 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s">
         <v>167</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="N51" t="s">
+        <v>79</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="R51" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" t="s">
+        <v>80</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="U51">
         <v>2</v>
       </c>
-      <c r="R51" t="s">
-        <v>45</v>
-      </c>
-      <c r="S51" t="s">
-        <v>46</v>
-      </c>
-      <c r="T51">
-        <v>100</v>
-      </c>
-      <c r="V51" t="s">
-        <v>47</v>
-      </c>
       <c r="AD51" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -4586,7 +4598,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I52" t="s">
         <v>39</v>
@@ -4595,42 +4607,63 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" t="s">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="N52" t="s">
+        <v>85</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S52" t="s">
         <v>46</v>
       </c>
       <c r="T52">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="W52" t="s">
+        <v>87</v>
+      </c>
+      <c r="X52" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>76</v>
       </c>
       <c r="AD52" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="AE52" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -4642,7 +4675,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
@@ -4651,45 +4684,45 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="P53" t="s">
-        <v>57</v>
+        <v>95</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R53" t="s">
         <v>45</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="T53">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
       </c>
       <c r="AD53" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AE53" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -4701,7 +4734,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
@@ -4710,57 +4743,45 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T54">
-        <v>100</v>
-      </c>
-      <c r="W54" t="s">
-        <v>64</v>
-      </c>
-      <c r="X54" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
       </c>
       <c r="AD54" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AE54" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -4772,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
@@ -4781,22 +4802,19 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R55" t="s">
         <v>45</v>
@@ -4823,18 +4841,18 @@
         <v>76</v>
       </c>
       <c r="AD55" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="AE55" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -4846,7 +4864,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
@@ -4855,48 +4873,48 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
-      </c>
-      <c r="N56" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="Q56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s">
+        <v>46</v>
+      </c>
+      <c r="T56">
+        <v>100</v>
+      </c>
+      <c r="V56" t="s">
         <v>47</v>
       </c>
-      <c r="S56" t="s">
-        <v>80</v>
-      </c>
-      <c r="T56">
-        <v>8</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
+      <c r="AB56" t="s">
+        <v>48</v>
       </c>
       <c r="AD56" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AE56" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -4908,7 +4926,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
@@ -4917,63 +4935,45 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L57" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
-        <v>84</v>
-      </c>
-      <c r="N57" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P57" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="Q57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s">
         <v>46</v>
       </c>
       <c r="T57">
-        <v>20</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="W57" t="s">
-        <v>87</v>
-      </c>
-      <c r="X57" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V57" t="s">
+        <v>47</v>
       </c>
       <c r="AD57" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AE57" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -4985,7 +4985,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
@@ -4994,22 +4994,19 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M58" t="s">
-        <v>93</v>
-      </c>
-      <c r="N58" t="s">
-        <v>282</v>
-      </c>
-      <c r="P58" t="s">
-        <v>94</v>
+        <v>53</v>
+      </c>
+      <c r="O58" t="s">
+        <v>54</v>
       </c>
       <c r="Q58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R58" t="s">
         <v>45</v>
@@ -5018,21 +5015,21 @@
         <v>46</v>
       </c>
       <c r="T58">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD58" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="AE58" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -5044,7 +5041,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I59" t="s">
         <v>39</v>
@@ -5053,45 +5050,45 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M59" t="s">
-        <v>96</v>
+        <v>56</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="Q59">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R59" t="s">
         <v>45</v>
       </c>
       <c r="S59" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="T59">
-        <v>8</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD59" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AE59" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -5103,7 +5100,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
@@ -5112,45 +5109,57 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M60" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="N60" t="s">
+        <v>62</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S60" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T60">
-        <v>8</v>
-      </c>
-      <c r="U60">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="W60" t="s">
+        <v>64</v>
+      </c>
+      <c r="X60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>67</v>
       </c>
       <c r="AD60" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AE60" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -5162,7 +5171,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
         <v>39</v>
@@ -5171,57 +5180,48 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L61" t="s">
+        <v>186</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="s">
         <v>180</v>
       </c>
-      <c r="M61" t="s">
-        <v>100</v>
-      </c>
-      <c r="O61" t="s">
-        <v>101</v>
-      </c>
       <c r="Q61">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="W61" t="s">
-        <v>72</v>
-      </c>
-      <c r="X61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
       </c>
       <c r="AD61" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AE61" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -5233,7 +5233,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
@@ -5242,19 +5242,19 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P62" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R62" t="s">
         <v>45</v>
@@ -5263,27 +5263,21 @@
         <v>46</v>
       </c>
       <c r="T62">
-        <v>100</v>
-      </c>
-      <c r="V62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AD62" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AE62" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -5295,7 +5289,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I63" t="s">
         <v>39</v>
@@ -5304,45 +5298,45 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
-      </c>
-      <c r="P63" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R63" t="s">
         <v>45</v>
       </c>
       <c r="S63" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T63">
-        <v>100</v>
-      </c>
-      <c r="V63" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
       </c>
       <c r="AD63" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AE63" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -5354,7 +5348,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
@@ -5363,42 +5357,45 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" t="s">
-        <v>54</v>
+        <v>97</v>
+      </c>
+      <c r="P64" t="s">
+        <v>276</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R64" t="s">
         <v>45</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T64">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
       </c>
       <c r="AD64" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="AE64" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -5410,7 +5407,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
@@ -5419,45 +5416,57 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M65" t="s">
-        <v>56</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="P65" t="s">
-        <v>57</v>
+        <v>99</v>
+      </c>
+      <c r="O65" t="s">
+        <v>100</v>
       </c>
       <c r="Q65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R65" t="s">
         <v>45</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T65">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="W65" t="s">
+        <v>72</v>
+      </c>
+      <c r="X65" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>76</v>
       </c>
       <c r="AD65" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AE65" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -5469,7 +5478,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
@@ -5478,25 +5487,22 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N66" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="Q66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S66" t="s">
         <v>46</v>
@@ -5504,31 +5510,25 @@
       <c r="T66">
         <v>100</v>
       </c>
-      <c r="W66" t="s">
-        <v>64</v>
-      </c>
-      <c r="X66" t="s">
-        <v>65</v>
+      <c r="V66" t="s">
+        <v>47</v>
       </c>
       <c r="AB66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AD66" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AE66" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -5540,7 +5540,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I67" t="s">
         <v>39</v>
@@ -5549,22 +5549,19 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M67" t="s">
-        <v>69</v>
-      </c>
-      <c r="N67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O67" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="P67" t="s">
+        <v>51</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R67" t="s">
         <v>45</v>
@@ -5573,36 +5570,24 @@
         <v>46</v>
       </c>
       <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="W67" t="s">
-        <v>72</v>
-      </c>
-      <c r="X67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V67" t="s">
+        <v>47</v>
       </c>
       <c r="AD67" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AE67" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -5614,7 +5599,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
@@ -5623,48 +5608,42 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L68" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M68" t="s">
-        <v>78</v>
-      </c>
-      <c r="N68" t="s">
-        <v>79</v>
-      </c>
-      <c r="P68" t="s">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="O68" t="s">
+        <v>54</v>
       </c>
       <c r="Q68">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S68" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T68">
-        <v>8</v>
-      </c>
-      <c r="U68">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD68" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="AE68" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -5676,7 +5655,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I69" t="s">
         <v>39</v>
@@ -5685,39 +5664,45 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M69" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P69" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="Q69">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="R69" t="s">
+        <v>45</v>
       </c>
       <c r="S69" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AD69" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="AE69" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -5729,7 +5714,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I70" t="s">
         <v>39</v>
@@ -5738,25 +5723,25 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L70" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="N70" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="P70" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="Q70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S70" t="s">
         <v>46</v>
@@ -5764,19 +5749,31 @@
       <c r="T70">
         <v>100</v>
       </c>
+      <c r="W70" t="s">
+        <v>64</v>
+      </c>
+      <c r="X70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>67</v>
+      </c>
       <c r="AD70" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="AE70" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -5788,7 +5785,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I71" t="s">
         <v>39</v>
@@ -5797,45 +5794,60 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L71" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M71" t="s">
-        <v>96</v>
-      </c>
-      <c r="P71" t="s">
-        <v>284</v>
+        <v>69</v>
+      </c>
+      <c r="N71" t="s">
+        <v>70</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
       </c>
       <c r="Q71">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R71" t="s">
         <v>45</v>
       </c>
       <c r="S71" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T71">
-        <v>8</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>72</v>
+      </c>
+      <c r="X71" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>76</v>
       </c>
       <c r="AD71" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AE71" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -5847,7 +5859,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
@@ -5856,22 +5868,25 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M72" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="N72" t="s">
+        <v>79</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="Q72">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S72" t="s">
         <v>80</v>
@@ -5883,18 +5898,18 @@
         <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AE72" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
@@ -5906,7 +5921,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
@@ -5915,57 +5930,60 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M73" t="s">
-        <v>100</v>
-      </c>
-      <c r="O73" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="N73" t="s">
+        <v>207</v>
+      </c>
+      <c r="P73" t="s">
+        <v>86</v>
       </c>
       <c r="Q73">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S73" t="s">
         <v>46</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="W73" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="X73" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Y73" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Z73" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="AA73" t="s">
         <v>76</v>
       </c>
       <c r="AD73" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE73" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -5977,7 +5995,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I74" t="s">
         <v>39</v>
@@ -5986,48 +6004,45 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L74" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s">
-        <v>44</v>
-      </c>
-      <c r="P74" t="s">
-        <v>283</v>
+        <v>95</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R74" t="s">
         <v>45</v>
       </c>
       <c r="S74" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T74">
-        <v>100</v>
-      </c>
-      <c r="V74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
       </c>
       <c r="AD74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AE74" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -6039,7 +6054,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I75" t="s">
         <v>39</v>
@@ -6048,45 +6063,45 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L75" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R75" t="s">
         <v>45</v>
       </c>
       <c r="S75" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T75">
-        <v>100</v>
-      </c>
-      <c r="V75" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
       </c>
       <c r="AD75" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="AE75" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -6098,7 +6113,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I76" t="s">
         <v>39</v>
@@ -6107,19 +6122,19 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M76" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O76" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="Q76">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R76" t="s">
         <v>45</v>
@@ -6128,21 +6143,36 @@
         <v>46</v>
       </c>
       <c r="T76">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
+        <v>72</v>
+      </c>
+      <c r="X76" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>76</v>
       </c>
       <c r="AD76" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="AE76" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -6154,7 +6184,7 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I77" t="s">
         <v>39</v>
@@ -6163,45 +6193,48 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L77" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M77" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="Q77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R77" t="s">
         <v>45</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T77">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="V77" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>48</v>
       </c>
       <c r="AD77" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AE77" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
@@ -6213,7 +6246,7 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I78" t="s">
         <v>39</v>
@@ -6222,25 +6255,22 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L78" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
-      </c>
-      <c r="N78" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="P78" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="Q78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R78" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S78" t="s">
         <v>46</v>
@@ -6248,31 +6278,22 @@
       <c r="T78">
         <v>100</v>
       </c>
-      <c r="W78" t="s">
-        <v>64</v>
-      </c>
-      <c r="X78" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>67</v>
+      <c r="V78" t="s">
+        <v>47</v>
       </c>
       <c r="AD78" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AE78" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -6284,7 +6305,7 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
@@ -6293,22 +6314,19 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L79" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M79" t="s">
-        <v>69</v>
-      </c>
-      <c r="N79" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O79" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R79" t="s">
         <v>45</v>
@@ -6317,36 +6335,21 @@
         <v>46</v>
       </c>
       <c r="T79">
-        <v>1</v>
-      </c>
-      <c r="W79" t="s">
-        <v>72</v>
-      </c>
-      <c r="X79" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AD79" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AE79" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
@@ -6358,7 +6361,7 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
@@ -6367,48 +6370,45 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M80" t="s">
-        <v>78</v>
-      </c>
-      <c r="N80" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="Q80">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S80" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="T80">
-        <v>8</v>
-      </c>
-      <c r="U80">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD80" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AE80" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
@@ -6420,7 +6420,7 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I81" t="s">
         <v>39</v>
@@ -6429,22 +6429,22 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L81" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M81" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N81" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="Q81">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R81" t="s">
         <v>47</v>
@@ -6453,36 +6453,33 @@
         <v>46</v>
       </c>
       <c r="T81">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="W81" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="X81" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>67</v>
       </c>
       <c r="AD81" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AE81" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
@@ -6494,7 +6491,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I82" t="s">
         <v>39</v>
@@ -6503,45 +6500,48 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L82" t="s">
+        <v>223</v>
+      </c>
+      <c r="M82" t="s">
+        <v>78</v>
+      </c>
+      <c r="N82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="s">
         <v>217</v>
       </c>
-      <c r="M82" t="s">
-        <v>93</v>
-      </c>
-      <c r="N82" t="s">
-        <v>282</v>
-      </c>
-      <c r="P82" t="s">
-        <v>94</v>
-      </c>
       <c r="Q82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S82" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T82">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U82">
+        <v>2</v>
       </c>
       <c r="AD82" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AE82" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D83" t="s">
         <v>35</v>
@@ -6553,7 +6553,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I83" t="s">
         <v>39</v>
@@ -6562,45 +6562,60 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L83" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M83" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="N83" t="s">
+        <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="Q83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S83" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T83">
-        <v>8</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="W83" t="s">
+        <v>87</v>
+      </c>
+      <c r="X83" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>76</v>
       </c>
       <c r="AD83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AE83" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
@@ -6612,7 +6627,7 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I84" t="s">
         <v>39</v>
@@ -6621,19 +6636,19 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L84" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M84" t="s">
-        <v>98</v>
-      </c>
-      <c r="P84" t="s">
-        <v>285</v>
+        <v>95</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q84">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R84" t="s">
         <v>45</v>
@@ -6648,18 +6663,18 @@
         <v>2</v>
       </c>
       <c r="AD84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AE84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
@@ -6671,7 +6686,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I85" t="s">
         <v>39</v>
@@ -6680,57 +6695,45 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L85" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M85" t="s">
-        <v>100</v>
-      </c>
-      <c r="O85" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="P85" t="s">
+        <v>276</v>
       </c>
       <c r="Q85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R85" t="s">
         <v>45</v>
       </c>
       <c r="S85" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T85">
-        <v>1</v>
-      </c>
-      <c r="W85" t="s">
-        <v>72</v>
-      </c>
-      <c r="X85" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
       </c>
       <c r="AD85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
@@ -6742,7 +6745,7 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I86" t="s">
         <v>39</v>
@@ -6751,19 +6754,19 @@
         <v>40</v>
       </c>
       <c r="K86" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L86" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M86" t="s">
-        <v>44</v>
-      </c>
-      <c r="P86" t="s">
-        <v>283</v>
+        <v>99</v>
+      </c>
+      <c r="O86" t="s">
+        <v>100</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R86" t="s">
         <v>45</v>
@@ -6772,27 +6775,36 @@
         <v>46</v>
       </c>
       <c r="T86">
-        <v>100</v>
-      </c>
-      <c r="V86" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="W86" t="s">
+        <v>72</v>
+      </c>
+      <c r="X86" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>76</v>
       </c>
       <c r="AD86" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AE86" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
@@ -6804,7 +6816,7 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I87" t="s">
         <v>39</v>
@@ -6813,19 +6825,19 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L87" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R87" t="s">
         <v>45</v>
@@ -6839,19 +6851,22 @@
       <c r="V87" t="s">
         <v>47</v>
       </c>
+      <c r="AB87" t="s">
+        <v>48</v>
+      </c>
       <c r="AD87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AE87" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
@@ -6863,7 +6878,7 @@
         <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I88" t="s">
         <v>39</v>
@@ -6872,19 +6887,19 @@
         <v>40</v>
       </c>
       <c r="K88" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L88" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M88" t="s">
-        <v>53</v>
-      </c>
-      <c r="O88" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="P88" t="s">
+        <v>51</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R88" t="s">
         <v>45</v>
@@ -6893,21 +6908,24 @@
         <v>46</v>
       </c>
       <c r="T88">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="V88" t="s">
+        <v>47</v>
       </c>
       <c r="AD88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AE88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D89" t="s">
         <v>35</v>
@@ -6919,7 +6937,7 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I89" t="s">
         <v>39</v>
@@ -6928,45 +6946,42 @@
         <v>40</v>
       </c>
       <c r="K89" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L89" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M89" t="s">
-        <v>56</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="P89" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="O89" t="s">
+        <v>54</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R89" t="s">
         <v>45</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T89">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="AD89" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AE89" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
@@ -6978,7 +6993,7 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I90" t="s">
         <v>39</v>
@@ -6987,57 +7002,45 @@
         <v>40</v>
       </c>
       <c r="K90" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L90" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M90" t="s">
-        <v>61</v>
-      </c>
-      <c r="N90" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="P90" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S90" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T90">
-        <v>100</v>
-      </c>
-      <c r="W90" t="s">
-        <v>64</v>
-      </c>
-      <c r="X90" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="AD90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
         <v>35</v>
@@ -7049,7 +7052,7 @@
         <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I91" t="s">
         <v>39</v>
@@ -7058,60 +7061,57 @@
         <v>40</v>
       </c>
       <c r="K91" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L91" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M91" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N91" t="s">
-        <v>70</v>
-      </c>
-      <c r="O91" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="P91" t="s">
+        <v>63</v>
       </c>
       <c r="Q91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S91" t="s">
         <v>46</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="W91" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="X91" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>67</v>
       </c>
       <c r="AD91" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AE91" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D92" t="s">
         <v>35</v>
@@ -7123,7 +7123,7 @@
         <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I92" t="s">
         <v>39</v>
@@ -7132,10 +7132,10 @@
         <v>40</v>
       </c>
       <c r="K92" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L92" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M92" t="s">
         <v>78</v>
@@ -7144,10 +7144,10 @@
         <v>79</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q92">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R92" t="s">
         <v>47</v>
@@ -7165,15 +7165,15 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D93" t="s">
         <v>35</v>
@@ -7185,7 +7185,7 @@
         <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I93" t="s">
         <v>39</v>
@@ -7194,22 +7194,22 @@
         <v>40</v>
       </c>
       <c r="K93" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L93" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M93" t="s">
         <v>84</v>
       </c>
       <c r="N93" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="P93" t="s">
         <v>86</v>
       </c>
       <c r="Q93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R93" t="s">
         <v>47</v>
@@ -7227,10 +7227,10 @@
         <v>88</v>
       </c>
       <c r="Y93" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Z93" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AA93" t="s">
         <v>76</v>
@@ -7239,15 +7239,15 @@
         <v>90</v>
       </c>
       <c r="AE93" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D94" t="s">
         <v>35</v>
@@ -7259,7 +7259,7 @@
         <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I94" t="s">
         <v>39</v>
@@ -7268,45 +7268,45 @@
         <v>40</v>
       </c>
       <c r="K94" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L94" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M94" t="s">
-        <v>93</v>
-      </c>
-      <c r="N94" t="s">
-        <v>282</v>
-      </c>
-      <c r="P94" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R94" t="s">
         <v>45</v>
       </c>
       <c r="S94" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T94">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
       </c>
       <c r="AD94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE94" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
         <v>35</v>
@@ -7318,7 +7318,7 @@
         <v>37</v>
       </c>
       <c r="H95" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I95" t="s">
         <v>39</v>
@@ -7327,19 +7327,19 @@
         <v>40</v>
       </c>
       <c r="K95" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L95" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R95" t="s">
         <v>45</v>
@@ -7354,18 +7354,18 @@
         <v>2</v>
       </c>
       <c r="AD95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D96" t="s">
         <v>35</v>
@@ -7377,7 +7377,7 @@
         <v>37</v>
       </c>
       <c r="H96" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I96" t="s">
         <v>39</v>
@@ -7386,45 +7386,57 @@
         <v>40</v>
       </c>
       <c r="K96" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L96" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M96" t="s">
-        <v>98</v>
-      </c>
-      <c r="P96" t="s">
-        <v>285</v>
+        <v>99</v>
+      </c>
+      <c r="O96" t="s">
+        <v>100</v>
       </c>
       <c r="Q96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R96" t="s">
         <v>45</v>
       </c>
       <c r="S96" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T96">
-        <v>8</v>
-      </c>
-      <c r="U96">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W96" t="s">
+        <v>72</v>
+      </c>
+      <c r="X96" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>76</v>
       </c>
       <c r="AD96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D97" t="s">
         <v>35</v>
@@ -7436,7 +7448,7 @@
         <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="I97" t="s">
         <v>39</v>
@@ -7445,19 +7457,19 @@
         <v>40</v>
       </c>
       <c r="K97" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L97" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M97" t="s">
-        <v>100</v>
-      </c>
-      <c r="O97" t="s">
-        <v>101</v>
+        <v>44</v>
+      </c>
+      <c r="P97" t="s">
+        <v>275</v>
       </c>
       <c r="Q97">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R97" t="s">
         <v>45</v>
@@ -7466,36 +7478,27 @@
         <v>46</v>
       </c>
       <c r="T97">
-        <v>1</v>
-      </c>
-      <c r="W97" t="s">
-        <v>72</v>
-      </c>
-      <c r="X97" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V97" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>48</v>
       </c>
       <c r="AD97" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE97" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D98" t="s">
         <v>35</v>
@@ -7507,7 +7510,7 @@
         <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I98" t="s">
         <v>39</v>
@@ -7516,19 +7519,19 @@
         <v>40</v>
       </c>
       <c r="K98" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L98" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R98" t="s">
         <v>45</v>
@@ -7542,22 +7545,19 @@
       <c r="V98" t="s">
         <v>47</v>
       </c>
-      <c r="AB98" t="s">
-        <v>48</v>
-      </c>
       <c r="AD98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
@@ -7569,7 +7569,7 @@
         <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I99" t="s">
         <v>39</v>
@@ -7578,19 +7578,19 @@
         <v>40</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L99" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M99" t="s">
-        <v>50</v>
-      </c>
-      <c r="P99" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="O99" t="s">
+        <v>54</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R99" t="s">
         <v>45</v>
@@ -7599,24 +7599,21 @@
         <v>46</v>
       </c>
       <c r="T99">
-        <v>100</v>
-      </c>
-      <c r="V99" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="AD99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AE99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
@@ -7628,7 +7625,7 @@
         <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I100" t="s">
         <v>39</v>
@@ -7637,42 +7634,45 @@
         <v>40</v>
       </c>
       <c r="K100" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L100" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M100" t="s">
-        <v>53</v>
-      </c>
-      <c r="O100" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P100" t="s">
+        <v>57</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R100" t="s">
         <v>45</v>
       </c>
       <c r="S100" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T100">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AD100" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AE100" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
@@ -7684,7 +7684,7 @@
         <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I101" t="s">
         <v>39</v>
@@ -7693,45 +7693,57 @@
         <v>40</v>
       </c>
       <c r="K101" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L101" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M101" t="s">
-        <v>56</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>281</v>
+        <v>61</v>
+      </c>
+      <c r="N101" t="s">
+        <v>62</v>
       </c>
       <c r="P101" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T101">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="W101" t="s">
+        <v>64</v>
+      </c>
+      <c r="X101" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>67</v>
       </c>
       <c r="AD101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AE101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
@@ -7743,7 +7755,7 @@
         <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I102" t="s">
         <v>39</v>
@@ -7752,57 +7764,60 @@
         <v>40</v>
       </c>
       <c r="K102" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M102" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N102" t="s">
-        <v>62</v>
-      </c>
-      <c r="P102" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="O102" t="s">
+        <v>71</v>
       </c>
       <c r="Q102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S102" t="s">
         <v>46</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W102" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X102" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>76</v>
       </c>
       <c r="AD102" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AE102" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
@@ -7814,7 +7829,7 @@
         <v>37</v>
       </c>
       <c r="H103" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I103" t="s">
         <v>39</v>
@@ -7823,60 +7838,48 @@
         <v>40</v>
       </c>
       <c r="K103" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L103" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M103" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N103" t="s">
-        <v>70</v>
-      </c>
-      <c r="O103" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="P103" t="s">
+        <v>254</v>
       </c>
       <c r="Q103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S103" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T103">
-        <v>1</v>
-      </c>
-      <c r="W103" t="s">
-        <v>72</v>
-      </c>
-      <c r="X103" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z103" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
       </c>
       <c r="AD103" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AE103" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
@@ -7888,7 +7891,7 @@
         <v>37</v>
       </c>
       <c r="H104" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I104" t="s">
         <v>39</v>
@@ -7897,48 +7900,60 @@
         <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L104" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M104" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N104" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="Q104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R104" t="s">
         <v>47</v>
       </c>
       <c r="S104" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T104">
-        <v>8</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="W104" t="s">
+        <v>87</v>
+      </c>
+      <c r="X104" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>76</v>
       </c>
       <c r="AD104" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AE104" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
@@ -7950,7 +7965,7 @@
         <v>37</v>
       </c>
       <c r="H105" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I105" t="s">
         <v>39</v>
@@ -7959,60 +7974,45 @@
         <v>40</v>
       </c>
       <c r="K105" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L105" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M105" t="s">
-        <v>84</v>
-      </c>
-      <c r="N105" t="s">
-        <v>255</v>
-      </c>
-      <c r="P105" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q105">
+        <v>9</v>
+      </c>
+      <c r="R105" t="s">
+        <v>45</v>
+      </c>
+      <c r="S105" t="s">
+        <v>80</v>
+      </c>
+      <c r="T105">
         <v>8</v>
       </c>
-      <c r="R105" t="s">
-        <v>47</v>
-      </c>
-      <c r="S105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T105">
-        <v>20</v>
-      </c>
-      <c r="W105" t="s">
-        <v>87</v>
-      </c>
-      <c r="X105" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>76</v>
+      <c r="U105">
+        <v>2</v>
       </c>
       <c r="AD105" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE105" t="s">
-        <v>257</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
@@ -8024,7 +8024,7 @@
         <v>37</v>
       </c>
       <c r="H106" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I106" t="s">
         <v>39</v>
@@ -8033,45 +8033,45 @@
         <v>40</v>
       </c>
       <c r="K106" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L106" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M106" t="s">
-        <v>93</v>
-      </c>
-      <c r="N106" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="P106" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="Q106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R106" t="s">
         <v>45</v>
       </c>
       <c r="S106" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T106">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
       </c>
       <c r="AD106" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AE106" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D107" t="s">
         <v>35</v>
@@ -8083,7 +8083,7 @@
         <v>37</v>
       </c>
       <c r="H107" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I107" t="s">
         <v>39</v>
@@ -8092,45 +8092,57 @@
         <v>40</v>
       </c>
       <c r="K107" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L107" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M107" t="s">
-        <v>96</v>
-      </c>
-      <c r="P107" t="s">
-        <v>284</v>
+        <v>99</v>
+      </c>
+      <c r="O107" t="s">
+        <v>100</v>
       </c>
       <c r="Q107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R107" t="s">
         <v>45</v>
       </c>
       <c r="S107" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T107">
-        <v>8</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W107" t="s">
+        <v>72</v>
+      </c>
+      <c r="X107" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>76</v>
       </c>
       <c r="AD107" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>241</v>
-      </c>
-      <c r="C108" t="s">
-        <v>242</v>
+        <v>156</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -8142,7 +8154,7 @@
         <v>37</v>
       </c>
       <c r="H108" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="I108" t="s">
         <v>39</v>
@@ -8150,79 +8162,82 @@
       <c r="J108" t="s">
         <v>40</v>
       </c>
-      <c r="K108" t="s">
-        <v>244</v>
+      <c r="K108" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L108" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="M108" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q108">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R108" t="s">
         <v>45</v>
       </c>
       <c r="S108" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T108">
-        <v>8</v>
-      </c>
-      <c r="U108">
+        <v>100</v>
+      </c>
+      <c r="V108" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s">
+        <v>273</v>
+      </c>
+      <c r="I109" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" t="s">
+        <v>40</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L109" t="s">
+        <v>162</v>
+      </c>
+      <c r="M109" t="s">
+        <v>50</v>
+      </c>
+      <c r="P109" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q109">
         <v>2</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" t="s">
-        <v>243</v>
-      </c>
-      <c r="I109" t="s">
-        <v>39</v>
-      </c>
-      <c r="J109" t="s">
-        <v>40</v>
-      </c>
-      <c r="K109" t="s">
-        <v>244</v>
-      </c>
-      <c r="L109" t="s">
-        <v>261</v>
-      </c>
-      <c r="M109" t="s">
-        <v>100</v>
-      </c>
-      <c r="O109" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q109">
-        <v>12</v>
       </c>
       <c r="R109" t="s">
         <v>45</v>
@@ -8231,36 +8246,24 @@
         <v>46</v>
       </c>
       <c r="T109">
-        <v>1</v>
-      </c>
-      <c r="W109" t="s">
-        <v>72</v>
-      </c>
-      <c r="X109" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="V109" t="s">
+        <v>47</v>
       </c>
       <c r="AD109" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AE109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>262</v>
-      </c>
-      <c r="C110" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D110" t="s">
         <v>35</v>
@@ -8272,7 +8275,7 @@
         <v>37</v>
       </c>
       <c r="H110" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I110" t="s">
         <v>39</v>
@@ -8280,20 +8283,20 @@
       <c r="J110" t="s">
         <v>40</v>
       </c>
-      <c r="K110" t="s">
-        <v>265</v>
+      <c r="K110" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L110" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="M110" t="s">
-        <v>44</v>
-      </c>
-      <c r="P110" t="s">
-        <v>283</v>
+        <v>53</v>
+      </c>
+      <c r="O110" t="s">
+        <v>54</v>
       </c>
       <c r="Q110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R110" t="s">
         <v>45</v>
@@ -8302,27 +8305,21 @@
         <v>46</v>
       </c>
       <c r="T110">
-        <v>100</v>
-      </c>
-      <c r="V110" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AD110" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D111" t="s">
         <v>35</v>
@@ -8334,7 +8331,7 @@
         <v>37</v>
       </c>
       <c r="H111" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I111" t="s">
         <v>39</v>
@@ -8342,102 +8339,117 @@
       <c r="J111" t="s">
         <v>40</v>
       </c>
-      <c r="K111" t="s">
-        <v>265</v>
+      <c r="K111" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L111" t="s">
+        <v>164</v>
+      </c>
+      <c r="M111" t="s">
+        <v>56</v>
+      </c>
+      <c r="N111" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M111" t="s">
-        <v>50</v>
-      </c>
       <c r="P111" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R111" t="s">
         <v>45</v>
       </c>
       <c r="S111" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T111">
-        <v>100</v>
-      </c>
-      <c r="V111" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s">
+        <v>273</v>
+      </c>
+      <c r="I112" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L112" t="s">
+        <v>165</v>
+      </c>
+      <c r="M112" t="s">
+        <v>61</v>
+      </c>
+      <c r="N112" t="s">
+        <v>62</v>
+      </c>
+      <c r="P112" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112" t="s">
         <v>47</v>
-      </c>
-      <c r="AD111" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" t="s">
-        <v>263</v>
-      </c>
-      <c r="D112" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s">
-        <v>264</v>
-      </c>
-      <c r="I112" t="s">
-        <v>39</v>
-      </c>
-      <c r="J112" t="s">
-        <v>40</v>
-      </c>
-      <c r="K112" t="s">
-        <v>265</v>
-      </c>
-      <c r="L112" t="s">
-        <v>269</v>
-      </c>
-      <c r="M112" t="s">
-        <v>53</v>
-      </c>
-      <c r="O112" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q112">
-        <v>3</v>
-      </c>
-      <c r="R112" t="s">
-        <v>45</v>
       </c>
       <c r="S112" t="s">
         <v>46</v>
       </c>
       <c r="T112">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="W112" t="s">
+        <v>64</v>
+      </c>
+      <c r="X112" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>67</v>
       </c>
       <c r="AD112" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AE112" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>262</v>
-      </c>
-      <c r="C113" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="D113" t="s">
         <v>35</v>
@@ -8449,7 +8461,7 @@
         <v>37</v>
       </c>
       <c r="H113" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I113" t="s">
         <v>39</v>
@@ -8457,46 +8469,52 @@
       <c r="J113" t="s">
         <v>40</v>
       </c>
-      <c r="K113" t="s">
-        <v>265</v>
+      <c r="K113" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L113" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="M113" t="s">
-        <v>56</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>281</v>
+        <v>92</v>
+      </c>
+      <c r="N113" t="s">
+        <v>269</v>
       </c>
       <c r="P113" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="Q113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R113" t="s">
         <v>45</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T113">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="AB113" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC113" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="AD113" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="AE113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>262</v>
-      </c>
-      <c r="C114" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D114" t="s">
         <v>35</v>
@@ -8508,7 +8526,7 @@
         <v>37</v>
       </c>
       <c r="H114" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I114" t="s">
         <v>39</v>
@@ -8516,58 +8534,61 @@
       <c r="J114" t="s">
         <v>40</v>
       </c>
-      <c r="K114" t="s">
-        <v>265</v>
+      <c r="K114" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L114" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="M114" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N114" t="s">
-        <v>62</v>
-      </c>
-      <c r="P114" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="O114" t="s">
+        <v>71</v>
       </c>
       <c r="Q114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S114" t="s">
         <v>46</v>
       </c>
       <c r="T114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W114" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X114" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB114" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC114" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>76</v>
       </c>
       <c r="AD114" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AE114" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="2:31" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="D115" t="s">
         <v>35</v>
@@ -8579,7 +8600,7 @@
         <v>37</v>
       </c>
       <c r="H115" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I115" t="s">
         <v>39</v>
@@ -8587,62 +8608,50 @@
       <c r="J115" t="s">
         <v>40</v>
       </c>
-      <c r="K115" t="s">
-        <v>265</v>
+      <c r="K115" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L115" t="s">
+        <v>167</v>
+      </c>
+      <c r="M115" t="s">
+        <v>78</v>
+      </c>
+      <c r="N115" t="s">
+        <v>79</v>
+      </c>
+      <c r="P115" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q115">
+        <v>8</v>
+      </c>
+      <c r="R115" t="s">
+        <v>47</v>
+      </c>
+      <c r="S115" t="s">
+        <v>80</v>
+      </c>
+      <c r="T115">
+        <v>8</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="M115" t="s">
-        <v>69</v>
-      </c>
-      <c r="N115" t="s">
-        <v>70</v>
-      </c>
-      <c r="O115" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q115">
-        <v>6</v>
-      </c>
-      <c r="R115" t="s">
-        <v>45</v>
-      </c>
-      <c r="S115" t="s">
-        <v>46</v>
-      </c>
-      <c r="T115">
-        <v>1</v>
-      </c>
-      <c r="W115" t="s">
-        <v>72</v>
-      </c>
-      <c r="X115" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>262</v>
-      </c>
-      <c r="C116" t="s">
-        <v>263</v>
-      </c>
       <c r="D116" t="s">
         <v>35</v>
       </c>
@@ -8653,7 +8662,7 @@
         <v>37</v>
       </c>
       <c r="H116" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I116" t="s">
         <v>39</v>
@@ -8661,367 +8670,249 @@
       <c r="J116" t="s">
         <v>40</v>
       </c>
-      <c r="K116" t="s">
-        <v>265</v>
+      <c r="K116" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="L116" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="M116" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N116" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="Q116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R116" t="s">
         <v>47</v>
       </c>
       <c r="S116" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T116">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="U116">
         <v>2</v>
       </c>
+      <c r="W116" t="s">
+        <v>87</v>
+      </c>
+      <c r="X116" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>76</v>
+      </c>
       <c r="AD116" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AE116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
+        <v>273</v>
+      </c>
+      <c r="I117" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="117" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>262</v>
-      </c>
-      <c r="C117" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" t="s">
-        <v>264</v>
-      </c>
-      <c r="I117" t="s">
-        <v>39</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117" t="s">
-        <v>265</v>
-      </c>
       <c r="L117" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="M117" t="s">
-        <v>84</v>
-      </c>
-      <c r="N117" t="s">
-        <v>214</v>
-      </c>
-      <c r="P117" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="R117" t="s">
+        <v>45</v>
+      </c>
+      <c r="S117" t="s">
+        <v>80</v>
+      </c>
+      <c r="T117">
         <v>8</v>
       </c>
-      <c r="R117" t="s">
-        <v>47</v>
-      </c>
-      <c r="S117" t="s">
-        <v>46</v>
-      </c>
-      <c r="T117">
-        <v>20</v>
-      </c>
-      <c r="W117" t="s">
-        <v>87</v>
-      </c>
-      <c r="X117" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>76</v>
+      <c r="U117">
+        <v>2</v>
       </c>
       <c r="AD117" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
+        <v>273</v>
+      </c>
+      <c r="I118" t="s">
+        <v>39</v>
+      </c>
+      <c r="J118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L118" t="s">
+        <v>174</v>
+      </c>
+      <c r="M118" t="s">
+        <v>97</v>
+      </c>
+      <c r="P118" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="118" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>262</v>
-      </c>
-      <c r="C118" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" t="s">
-        <v>264</v>
-      </c>
-      <c r="I118" t="s">
-        <v>39</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118" t="s">
-        <v>265</v>
-      </c>
-      <c r="L118" t="s">
-        <v>277</v>
-      </c>
-      <c r="M118" t="s">
-        <v>93</v>
-      </c>
-      <c r="N118" t="s">
-        <v>282</v>
-      </c>
-      <c r="P118" t="s">
-        <v>94</v>
-      </c>
       <c r="Q118">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R118" t="s">
         <v>45</v>
       </c>
       <c r="S118" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="T118">
+        <v>8</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
+        <v>273</v>
+      </c>
+      <c r="I119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J119" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L119" t="s">
+        <v>175</v>
+      </c>
+      <c r="M119" t="s">
+        <v>99</v>
+      </c>
+      <c r="O119" t="s">
         <v>100</v>
       </c>
-      <c r="AD118" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" t="s">
-        <v>263</v>
-      </c>
-      <c r="D119" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" t="s">
-        <v>264</v>
-      </c>
-      <c r="I119" t="s">
-        <v>39</v>
-      </c>
-      <c r="J119" t="s">
-        <v>40</v>
-      </c>
-      <c r="K119" t="s">
-        <v>265</v>
-      </c>
-      <c r="L119" t="s">
-        <v>278</v>
-      </c>
-      <c r="M119" t="s">
-        <v>96</v>
-      </c>
-      <c r="P119" t="s">
-        <v>284</v>
-      </c>
       <c r="Q119">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R119" t="s">
         <v>45</v>
       </c>
       <c r="S119" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="T119">
-        <v>8</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W119" t="s">
+        <v>72</v>
+      </c>
+      <c r="X119" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>76</v>
       </c>
       <c r="AD119" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AE119" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" t="s">
-        <v>263</v>
-      </c>
-      <c r="D120" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" t="s">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s">
-        <v>37</v>
-      </c>
-      <c r="H120" t="s">
-        <v>264</v>
-      </c>
-      <c r="I120" t="s">
-        <v>39</v>
-      </c>
-      <c r="J120" t="s">
-        <v>40</v>
-      </c>
-      <c r="K120" t="s">
-        <v>265</v>
-      </c>
-      <c r="L120" t="s">
-        <v>279</v>
-      </c>
-      <c r="M120" t="s">
-        <v>98</v>
-      </c>
-      <c r="P120" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q120">
-        <v>11</v>
-      </c>
-      <c r="R120" t="s">
-        <v>45</v>
-      </c>
-      <c r="S120" t="s">
-        <v>80</v>
-      </c>
-      <c r="T120">
-        <v>8</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121" t="s">
-        <v>264</v>
-      </c>
-      <c r="I121" t="s">
-        <v>39</v>
-      </c>
-      <c r="J121" t="s">
-        <v>40</v>
-      </c>
-      <c r="K121" t="s">
-        <v>265</v>
-      </c>
-      <c r="L121" t="s">
-        <v>280</v>
-      </c>
-      <c r="M121" t="s">
-        <v>100</v>
-      </c>
-      <c r="O121" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q121">
-        <v>12</v>
-      </c>
-      <c r="R121" t="s">
-        <v>45</v>
-      </c>
-      <c r="S121" t="s">
-        <v>46</v>
-      </c>
-      <c r="T121">
-        <v>1</v>
-      </c>
-      <c r="W121" t="s">
-        <v>72</v>
-      </c>
-      <c r="X121" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA121" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AG119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Chem_Urin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08ECF19-617F-4E75-9EC5-91399DDA0308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DEBD1A-75A6-403B-A694-814A1C2C7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="282">
   <si>
     <t>package_date</t>
   </si>
@@ -763,9 +763,6 @@
     <t>ug/L</t>
   </si>
   <si>
-    <t>LBORRESU when LBTESTCD = NORNCTN</t>
-  </si>
-  <si>
     <t>NORNCTN_LBORNRLO</t>
   </si>
   <si>
@@ -857,6 +854,21 @@
   </si>
   <si>
     <t>Normal Range Lower Limit</t>
+  </si>
+  <si>
+    <t>LBORRESU = ug/L when LBTESTCD = NORNCTN</t>
+  </si>
+  <si>
+    <t>C67306</t>
+  </si>
+  <si>
+    <t>LBMETHOD = TEST STRIP when LBTESTCD = GLUC</t>
+  </si>
+  <si>
+    <t>LBCAT = CHEMISTRY</t>
+  </si>
+  <si>
+    <t>LBSPEC = URINE</t>
   </si>
 </sst>
 </file>
@@ -1268,23 +1280,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P120" sqref="P120"/>
+      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
     <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="31" max="31" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1423,7 +1438,7 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1447,7 +1462,7 @@
         <v>44</v>
       </c>
       <c r="AE2" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1600,7 +1615,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P5" t="s">
         <v>57</v>
@@ -1692,7 +1707,7 @@
         <v>61</v>
       </c>
       <c r="AE6" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1940,7 +1955,7 @@
         <v>95</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1999,7 +2014,7 @@
         <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2129,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -2153,7 +2168,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -2306,7 +2321,7 @@
         <v>56</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P16" t="s">
         <v>57</v>
@@ -2398,7 +2413,7 @@
         <v>61</v>
       </c>
       <c r="AE17" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
@@ -2646,7 +2661,7 @@
         <v>95</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -2705,7 +2720,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -2835,7 +2850,7 @@
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2859,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
@@ -3012,7 +3027,7 @@
         <v>56</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P27" t="s">
         <v>57</v>
@@ -3104,7 +3119,7 @@
         <v>61</v>
       </c>
       <c r="AE28" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
@@ -3278,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>8</v>
@@ -3337,7 +3352,7 @@
         <v>97</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -3467,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -3491,7 +3506,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
@@ -3644,7 +3659,7 @@
         <v>56</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P37" t="s">
         <v>57</v>
@@ -3736,7 +3751,7 @@
         <v>61</v>
       </c>
       <c r="AE38" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -3984,7 +3999,7 @@
         <v>95</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -4043,7 +4058,7 @@
         <v>97</v>
       </c>
       <c r="P43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -4173,7 +4188,7 @@
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -4197,7 +4212,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
@@ -4350,7 +4365,7 @@
         <v>56</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P48" t="s">
         <v>57</v>
@@ -4442,7 +4457,7 @@
         <v>61</v>
       </c>
       <c r="AE49" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
@@ -4693,7 +4708,7 @@
         <v>95</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -4752,7 +4767,7 @@
         <v>97</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>10</v>
@@ -4882,7 +4897,7 @@
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -4906,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
@@ -5059,7 +5074,7 @@
         <v>56</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P59" t="s">
         <v>57</v>
@@ -5151,7 +5166,7 @@
         <v>61</v>
       </c>
       <c r="AE60" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
@@ -5307,7 +5322,7 @@
         <v>95</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -5366,7 +5381,7 @@
         <v>97</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -5496,7 +5511,7 @@
         <v>44</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -5520,7 +5535,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
@@ -5673,7 +5688,7 @@
         <v>56</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P69" t="s">
         <v>57</v>
@@ -5765,7 +5780,7 @@
         <v>61</v>
       </c>
       <c r="AE70" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
@@ -6013,7 +6028,7 @@
         <v>95</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -6072,7 +6087,7 @@
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>10</v>
@@ -6202,7 +6217,7 @@
         <v>44</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -6226,7 +6241,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
@@ -6379,7 +6394,7 @@
         <v>56</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P80" t="s">
         <v>57</v>
@@ -6471,7 +6486,7 @@
         <v>61</v>
       </c>
       <c r="AE81" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.25">
@@ -6645,7 +6660,7 @@
         <v>95</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -6704,7 +6719,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -6834,7 +6849,7 @@
         <v>44</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -6858,7 +6873,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.25">
@@ -7011,7 +7026,7 @@
         <v>56</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P90" t="s">
         <v>57</v>
@@ -7103,7 +7118,7 @@
         <v>61</v>
       </c>
       <c r="AE91" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.25">
@@ -7226,20 +7241,17 @@
       <c r="X93" t="s">
         <v>88</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="AB93" t="s">
         <v>245</v>
       </c>
-      <c r="Z93" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>76</v>
+      <c r="AC93" t="s">
+        <v>278</v>
       </c>
       <c r="AD93" t="s">
         <v>90</v>
       </c>
       <c r="AE93" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="2:31" x14ac:dyDescent="0.25">
@@ -7271,13 +7283,13 @@
         <v>234</v>
       </c>
       <c r="L94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M94" t="s">
         <v>95</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -7330,13 +7342,13 @@
         <v>234</v>
       </c>
       <c r="L95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M95" t="s">
         <v>97</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -7389,7 +7401,7 @@
         <v>234</v>
       </c>
       <c r="L96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M96" t="s">
         <v>99</v>
@@ -7433,40 +7445,40 @@
     </row>
     <row r="97" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" t="s">
         <v>250</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s">
         <v>251</v>
       </c>
-      <c r="D97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" t="s">
+        <v>40</v>
+      </c>
+      <c r="K97" t="s">
         <v>252</v>
       </c>
-      <c r="I97" t="s">
-        <v>39</v>
-      </c>
-      <c r="J97" t="s">
-        <v>40</v>
-      </c>
-      <c r="K97" t="s">
-        <v>253</v>
-      </c>
       <c r="L97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M97" t="s">
         <v>44</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -7490,39 +7502,39 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
         <v>250</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
         <v>251</v>
       </c>
-      <c r="D98" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J98" t="s">
+        <v>40</v>
+      </c>
+      <c r="K98" t="s">
         <v>252</v>
       </c>
-      <c r="I98" t="s">
-        <v>39</v>
-      </c>
-      <c r="J98" t="s">
-        <v>40</v>
-      </c>
-      <c r="K98" t="s">
-        <v>253</v>
-      </c>
       <c r="L98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M98" t="s">
         <v>50</v>
@@ -7554,34 +7566,34 @@
     </row>
     <row r="99" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
         <v>250</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s">
         <v>251</v>
       </c>
-      <c r="D99" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" t="s">
         <v>252</v>
       </c>
-      <c r="I99" t="s">
-        <v>39</v>
-      </c>
-      <c r="J99" t="s">
-        <v>40</v>
-      </c>
-      <c r="K99" t="s">
-        <v>253</v>
-      </c>
       <c r="L99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M99" t="s">
         <v>53</v>
@@ -7610,40 +7622,40 @@
     </row>
     <row r="100" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
         <v>250</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s">
         <v>251</v>
       </c>
-      <c r="D100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100" t="s">
+        <v>40</v>
+      </c>
+      <c r="K100" t="s">
         <v>252</v>
       </c>
-      <c r="I100" t="s">
-        <v>39</v>
-      </c>
-      <c r="J100" t="s">
-        <v>40</v>
-      </c>
-      <c r="K100" t="s">
-        <v>253</v>
-      </c>
       <c r="L100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M100" t="s">
         <v>56</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P100" t="s">
         <v>57</v>
@@ -7669,34 +7681,34 @@
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" t="s">
         <v>250</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s">
         <v>251</v>
       </c>
-      <c r="D101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
+        <v>39</v>
+      </c>
+      <c r="J101" t="s">
+        <v>40</v>
+      </c>
+      <c r="K101" t="s">
         <v>252</v>
       </c>
-      <c r="I101" t="s">
-        <v>39</v>
-      </c>
-      <c r="J101" t="s">
-        <v>40</v>
-      </c>
-      <c r="K101" t="s">
-        <v>253</v>
-      </c>
       <c r="L101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M101" t="s">
         <v>61</v>
@@ -7735,39 +7747,39 @@
         <v>61</v>
       </c>
       <c r="AE101" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s">
         <v>251</v>
       </c>
-      <c r="D102" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>39</v>
+      </c>
+      <c r="J102" t="s">
+        <v>40</v>
+      </c>
+      <c r="K102" t="s">
         <v>252</v>
       </c>
-      <c r="I102" t="s">
-        <v>39</v>
-      </c>
-      <c r="J102" t="s">
-        <v>40</v>
-      </c>
-      <c r="K102" t="s">
-        <v>253</v>
-      </c>
       <c r="L102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M102" t="s">
         <v>69</v>
@@ -7814,34 +7826,34 @@
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
         <v>250</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
         <v>251</v>
       </c>
-      <c r="D103" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
+        <v>39</v>
+      </c>
+      <c r="J103" t="s">
+        <v>40</v>
+      </c>
+      <c r="K103" t="s">
         <v>252</v>
       </c>
-      <c r="I103" t="s">
-        <v>39</v>
-      </c>
-      <c r="J103" t="s">
-        <v>40</v>
-      </c>
-      <c r="K103" t="s">
-        <v>253</v>
-      </c>
       <c r="L103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M103" t="s">
         <v>78</v>
@@ -7850,7 +7862,7 @@
         <v>79</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -7871,39 +7883,39 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
         <v>250</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
         <v>251</v>
       </c>
-      <c r="D104" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" t="s">
+        <v>40</v>
+      </c>
+      <c r="K104" t="s">
         <v>252</v>
       </c>
-      <c r="I104" t="s">
-        <v>39</v>
-      </c>
-      <c r="J104" t="s">
-        <v>40</v>
-      </c>
-      <c r="K104" t="s">
-        <v>253</v>
-      </c>
       <c r="L104" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M104" t="s">
         <v>84</v>
@@ -7945,45 +7957,45 @@
         <v>90</v>
       </c>
       <c r="AE104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
         <v>250</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
         <v>251</v>
       </c>
-      <c r="D105" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" t="s">
+        <v>40</v>
+      </c>
+      <c r="K105" t="s">
         <v>252</v>
       </c>
-      <c r="I105" t="s">
-        <v>39</v>
-      </c>
-      <c r="J105" t="s">
-        <v>40</v>
-      </c>
-      <c r="K105" t="s">
-        <v>253</v>
-      </c>
       <c r="L105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M105" t="s">
         <v>95</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>9</v>
@@ -8009,40 +8021,40 @@
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
         <v>250</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
         <v>251</v>
       </c>
-      <c r="D106" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" t="s">
-        <v>36</v>
-      </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" t="s">
+        <v>40</v>
+      </c>
+      <c r="K106" t="s">
         <v>252</v>
       </c>
-      <c r="I106" t="s">
-        <v>39</v>
-      </c>
-      <c r="J106" t="s">
-        <v>40</v>
-      </c>
-      <c r="K106" t="s">
-        <v>253</v>
-      </c>
       <c r="L106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M106" t="s">
         <v>97</v>
       </c>
       <c r="P106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -8068,34 +8080,34 @@
     </row>
     <row r="107" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
         <v>250</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
         <v>251</v>
       </c>
-      <c r="D107" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" t="s">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s">
-        <v>37</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107" t="s">
         <v>252</v>
       </c>
-      <c r="I107" t="s">
-        <v>39</v>
-      </c>
-      <c r="J107" t="s">
-        <v>40</v>
-      </c>
-      <c r="K107" t="s">
-        <v>253</v>
-      </c>
       <c r="L107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M107" t="s">
         <v>99</v>
@@ -8137,33 +8149,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>156</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
         <v>272</v>
       </c>
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
+        <v>39</v>
+      </c>
+      <c r="J108" t="s">
+        <v>40</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I108" t="s">
-        <v>39</v>
-      </c>
-      <c r="J108" t="s">
-        <v>40</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L108" t="s">
         <v>161</v>
@@ -8172,7 +8184,7 @@
         <v>44</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -8196,36 +8208,36 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>156</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s">
         <v>272</v>
       </c>
-      <c r="D109" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
+        <v>39</v>
+      </c>
+      <c r="J109" t="s">
+        <v>40</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I109" t="s">
-        <v>39</v>
-      </c>
-      <c r="J109" t="s">
-        <v>40</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L109" t="s">
         <v>162</v>
@@ -8258,33 +8270,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>156</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
         <v>272</v>
       </c>
-      <c r="D110" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" t="s">
-        <v>36</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" t="s">
+        <v>40</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I110" t="s">
-        <v>39</v>
-      </c>
-      <c r="J110" t="s">
-        <v>40</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L110" t="s">
         <v>163</v>
@@ -8314,33 +8326,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>156</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s">
         <v>272</v>
       </c>
-      <c r="D111" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s">
-        <v>37</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I111" t="s">
-        <v>39</v>
-      </c>
-      <c r="J111" t="s">
-        <v>40</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L111" t="s">
         <v>164</v>
@@ -8349,7 +8361,7 @@
         <v>56</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P111" t="s">
         <v>57</v>
@@ -8373,33 +8385,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>156</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s">
         <v>272</v>
       </c>
-      <c r="D112" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
+        <v>39</v>
+      </c>
+      <c r="J112" t="s">
+        <v>40</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I112" t="s">
-        <v>39</v>
-      </c>
-      <c r="J112" t="s">
-        <v>40</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L112" t="s">
         <v>165</v>
@@ -8441,36 +8453,36 @@
         <v>61</v>
       </c>
       <c r="AE112" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>156</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s">
         <v>272</v>
       </c>
-      <c r="D113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113" t="s">
+        <v>40</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I113" t="s">
-        <v>39</v>
-      </c>
-      <c r="J113" t="s">
-        <v>40</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L113" t="s">
         <v>172</v>
@@ -8479,7 +8491,7 @@
         <v>92</v>
       </c>
       <c r="N113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P113" t="s">
         <v>93</v>
@@ -8497,45 +8509,45 @@
         <v>100</v>
       </c>
       <c r="AB113" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC113" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="AC113" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="AD113" t="s">
         <v>92</v>
       </c>
       <c r="AE113" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>156</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s">
         <v>272</v>
       </c>
-      <c r="D114" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K114" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I114" t="s">
-        <v>39</v>
-      </c>
-      <c r="J114" t="s">
-        <v>40</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L114" t="s">
         <v>166</v>
@@ -8583,33 +8595,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>156</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" t="s">
         <v>272</v>
       </c>
-      <c r="D115" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>37</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
+        <v>39</v>
+      </c>
+      <c r="J115" t="s">
+        <v>40</v>
+      </c>
+      <c r="K115" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I115" t="s">
-        <v>39</v>
-      </c>
-      <c r="J115" t="s">
-        <v>40</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L115" t="s">
         <v>167</v>
@@ -8645,33 +8657,33 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>156</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s">
         <v>272</v>
       </c>
-      <c r="D116" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" t="s">
-        <v>36</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
+        <v>39</v>
+      </c>
+      <c r="J116" t="s">
+        <v>40</v>
+      </c>
+      <c r="K116" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I116" t="s">
-        <v>39</v>
-      </c>
-      <c r="J116" t="s">
-        <v>40</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L116" t="s">
         <v>169</v>
@@ -8722,33 +8734,33 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>156</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
         <v>272</v>
       </c>
-      <c r="D117" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I117" t="s">
-        <v>39</v>
-      </c>
-      <c r="J117" t="s">
-        <v>40</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L117" t="s">
         <v>173</v>
@@ -8757,7 +8769,7 @@
         <v>95</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q117">
         <v>10</v>
@@ -8781,33 +8793,33 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>156</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
         <v>272</v>
       </c>
-      <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
+        <v>39</v>
+      </c>
+      <c r="J118" t="s">
+        <v>40</v>
+      </c>
+      <c r="K118" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I118" t="s">
-        <v>39</v>
-      </c>
-      <c r="J118" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L118" t="s">
         <v>174</v>
@@ -8816,7 +8828,7 @@
         <v>97</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -8840,33 +8852,33 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>156</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
         <v>272</v>
       </c>
-      <c r="D119" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J119" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="I119" t="s">
-        <v>39</v>
-      </c>
-      <c r="J119" t="s">
-        <v>40</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="L119" t="s">
         <v>175</v>
